--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1104\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03616FAB-35D6-46E3-BA73-AC033523F09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70D762-8FE5-43C8-B563-E982798A45AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20700" yWindow="855" windowWidth="17280" windowHeight="8880" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="950">
   <si>
     <t>_Path</t>
   </si>
@@ -594,12 +594,6 @@
   </si>
   <si>
     <t>Prototype_Component_Texture_UI_Deco_CornerTriangle</t>
-  </si>
-  <si>
-    <t>../Bin/Resources/Textures/UI/UIT_Deco_DotLine.dds</t>
-  </si>
-  <si>
-    <t>Prototype_Component_Texture_UI_Deco_DotLine</t>
   </si>
   <si>
     <t>../Bin/Resources/Textures/UI/UIT_Deco_DropErgo.dds</t>
@@ -3277,10 +3271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D476"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="B320" sqref="B320"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3291,13 +3285,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1">
-        <f>COUNTA(B3:B476)</f>
-        <v>474</v>
+        <f>COUNTA(B3:B475)</f>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3306,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -8510,17 +8504,6 @@
       </c>
       <c r="C475" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A476">
-        <v>473</v>
-      </c>
-      <c r="B476" t="s">
-        <v>948</v>
-      </c>
-      <c r="C476" t="s">
-        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1104\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70D762-8FE5-43C8-B563-E982798A45AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437AD2C-D426-4C15-ABD3-68D68BF387D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="29925" yWindow="1380" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="960">
   <si>
     <t>_Path</t>
   </si>
@@ -2877,9 +2878,6 @@
   </si>
   <si>
     <t>../Bin/Resources/Textures/UI/UIT_SubTItleIcon_Bag1.dds</t>
-  </si>
-  <si>
-    <t>Prototype_Component_Texture_UI_SubTItleIcon_Bag1</t>
   </si>
   <si>
     <t>_Index</t>
@@ -2887,6 +2885,50 @@
   </si>
   <si>
     <t>_용도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype_Component_Texture_UI_SubTItleIcon_Bag1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_GaugeFrame_H0.dds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_GaugeFrame_H1.dds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_GaugeFrame_H2.dds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_GaugeFrame_W0.dds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_GaugeFrame_W1.dds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype_Component_Texture_UI_GaugeFrame_H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype_Component_Texture_UI_GaugeFrame_H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype_Component_Texture_UI_GaugeFrame_H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype_Component_Texture_UI_GaugeFrame_W0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype_Component_Texture_UI_GaugeFrame_W1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3271,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="B476" sqref="B476:C480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3291,7 +3333,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3300,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -8503,7 +8545,3920 @@
         <v>946</v>
       </c>
       <c r="C475" t="s">
-        <v>947</v>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A476">
+        <v>473</v>
+      </c>
+      <c r="B476" t="s">
+        <v>950</v>
+      </c>
+      <c r="C476" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A477">
+        <v>474</v>
+      </c>
+      <c r="B477" t="s">
+        <v>951</v>
+      </c>
+      <c r="C477" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A478">
+        <v>475</v>
+      </c>
+      <c r="B478" t="s">
+        <v>952</v>
+      </c>
+      <c r="C478" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A479">
+        <v>476</v>
+      </c>
+      <c r="B479" t="s">
+        <v>953</v>
+      </c>
+      <c r="C479" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A480">
+        <v>477</v>
+      </c>
+      <c r="B480" t="s">
+        <v>954</v>
+      </c>
+      <c r="C480" t="s">
+        <v>959</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
+  <dimension ref="A1:B480"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:B480"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="64.69921875" customWidth="1"/>
+    <col min="2" max="2" width="63.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <f>COUNTA(A3:A475)</f>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>404</v>
+      </c>
+      <c r="B204" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>408</v>
+      </c>
+      <c r="B206" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>416</v>
+      </c>
+      <c r="B210" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>426</v>
+      </c>
+      <c r="B215" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>430</v>
+      </c>
+      <c r="B217" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>434</v>
+      </c>
+      <c r="B219" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>436</v>
+      </c>
+      <c r="B220" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>438</v>
+      </c>
+      <c r="B221" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>440</v>
+      </c>
+      <c r="B222" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>442</v>
+      </c>
+      <c r="B223" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>444</v>
+      </c>
+      <c r="B224" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>452</v>
+      </c>
+      <c r="B228" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>454</v>
+      </c>
+      <c r="B229" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>458</v>
+      </c>
+      <c r="B231" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>460</v>
+      </c>
+      <c r="B232" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>462</v>
+      </c>
+      <c r="B233" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>466</v>
+      </c>
+      <c r="B235" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>468</v>
+      </c>
+      <c r="B236" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>470</v>
+      </c>
+      <c r="B237" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>472</v>
+      </c>
+      <c r="B238" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>474</v>
+      </c>
+      <c r="B239" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>476</v>
+      </c>
+      <c r="B240" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>478</v>
+      </c>
+      <c r="B241" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>480</v>
+      </c>
+      <c r="B242" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>482</v>
+      </c>
+      <c r="B243" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>484</v>
+      </c>
+      <c r="B244" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>490</v>
+      </c>
+      <c r="B247" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>492</v>
+      </c>
+      <c r="B248" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>496</v>
+      </c>
+      <c r="B250" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>500</v>
+      </c>
+      <c r="B252" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>504</v>
+      </c>
+      <c r="B254" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
+        <v>508</v>
+      </c>
+      <c r="B256" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257" t="s">
+        <v>510</v>
+      </c>
+      <c r="B257" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
+        <v>512</v>
+      </c>
+      <c r="B258" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>514</v>
+      </c>
+      <c r="B259" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>516</v>
+      </c>
+      <c r="B260" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>518</v>
+      </c>
+      <c r="B261" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
+        <v>520</v>
+      </c>
+      <c r="B262" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263" t="s">
+        <v>522</v>
+      </c>
+      <c r="B263" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
+        <v>524</v>
+      </c>
+      <c r="B264" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265" t="s">
+        <v>526</v>
+      </c>
+      <c r="B265" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266" t="s">
+        <v>528</v>
+      </c>
+      <c r="B266" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>530</v>
+      </c>
+      <c r="B267" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
+        <v>532</v>
+      </c>
+      <c r="B268" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269" t="s">
+        <v>534</v>
+      </c>
+      <c r="B269" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270" t="s">
+        <v>536</v>
+      </c>
+      <c r="B270" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A271" t="s">
+        <v>538</v>
+      </c>
+      <c r="B271" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A272" t="s">
+        <v>540</v>
+      </c>
+      <c r="B272" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A273" t="s">
+        <v>542</v>
+      </c>
+      <c r="B273" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A274" t="s">
+        <v>544</v>
+      </c>
+      <c r="B274" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A275" t="s">
+        <v>546</v>
+      </c>
+      <c r="B275" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A276" t="s">
+        <v>548</v>
+      </c>
+      <c r="B276" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A277" t="s">
+        <v>550</v>
+      </c>
+      <c r="B277" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A278" t="s">
+        <v>552</v>
+      </c>
+      <c r="B278" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A279" t="s">
+        <v>554</v>
+      </c>
+      <c r="B279" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A280" t="s">
+        <v>556</v>
+      </c>
+      <c r="B280" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A281" t="s">
+        <v>558</v>
+      </c>
+      <c r="B281" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A282" t="s">
+        <v>560</v>
+      </c>
+      <c r="B282" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A283" t="s">
+        <v>562</v>
+      </c>
+      <c r="B283" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A284" t="s">
+        <v>564</v>
+      </c>
+      <c r="B284" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A285" t="s">
+        <v>566</v>
+      </c>
+      <c r="B285" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A286" t="s">
+        <v>568</v>
+      </c>
+      <c r="B286" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A287" t="s">
+        <v>570</v>
+      </c>
+      <c r="B287" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A288" t="s">
+        <v>572</v>
+      </c>
+      <c r="B288" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A289" t="s">
+        <v>574</v>
+      </c>
+      <c r="B289" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A290" t="s">
+        <v>576</v>
+      </c>
+      <c r="B290" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A291" t="s">
+        <v>578</v>
+      </c>
+      <c r="B291" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A292" t="s">
+        <v>580</v>
+      </c>
+      <c r="B292" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A293" t="s">
+        <v>582</v>
+      </c>
+      <c r="B293" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>584</v>
+      </c>
+      <c r="B294" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A295" t="s">
+        <v>586</v>
+      </c>
+      <c r="B295" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
+        <v>588</v>
+      </c>
+      <c r="B296" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
+        <v>590</v>
+      </c>
+      <c r="B297" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A298" t="s">
+        <v>592</v>
+      </c>
+      <c r="B298" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
+        <v>594</v>
+      </c>
+      <c r="B299" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
+        <v>596</v>
+      </c>
+      <c r="B300" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
+        <v>598</v>
+      </c>
+      <c r="B301" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
+        <v>600</v>
+      </c>
+      <c r="B302" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A303" t="s">
+        <v>602</v>
+      </c>
+      <c r="B303" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
+        <v>604</v>
+      </c>
+      <c r="B304" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
+        <v>606</v>
+      </c>
+      <c r="B305" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
+        <v>608</v>
+      </c>
+      <c r="B306" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
+        <v>610</v>
+      </c>
+      <c r="B307" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
+        <v>612</v>
+      </c>
+      <c r="B308" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>614</v>
+      </c>
+      <c r="B309" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
+        <v>616</v>
+      </c>
+      <c r="B310" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>618</v>
+      </c>
+      <c r="B311" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>620</v>
+      </c>
+      <c r="B312" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>622</v>
+      </c>
+      <c r="B313" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>624</v>
+      </c>
+      <c r="B314" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>626</v>
+      </c>
+      <c r="B315" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>628</v>
+      </c>
+      <c r="B316" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>630</v>
+      </c>
+      <c r="B317" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
+        <v>632</v>
+      </c>
+      <c r="B318" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>634</v>
+      </c>
+      <c r="B319" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>636</v>
+      </c>
+      <c r="B320" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>638</v>
+      </c>
+      <c r="B321" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>640</v>
+      </c>
+      <c r="B322" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>642</v>
+      </c>
+      <c r="B323" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>644</v>
+      </c>
+      <c r="B324" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>646</v>
+      </c>
+      <c r="B325" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>648</v>
+      </c>
+      <c r="B326" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>650</v>
+      </c>
+      <c r="B327" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
+        <v>652</v>
+      </c>
+      <c r="B328" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
+        <v>654</v>
+      </c>
+      <c r="B329" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
+        <v>656</v>
+      </c>
+      <c r="B330" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
+        <v>658</v>
+      </c>
+      <c r="B331" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
+        <v>660</v>
+      </c>
+      <c r="B332" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
+        <v>662</v>
+      </c>
+      <c r="B333" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
+        <v>664</v>
+      </c>
+      <c r="B334" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
+        <v>666</v>
+      </c>
+      <c r="B335" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
+        <v>668</v>
+      </c>
+      <c r="B336" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
+        <v>670</v>
+      </c>
+      <c r="B337" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
+        <v>672</v>
+      </c>
+      <c r="B338" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
+        <v>674</v>
+      </c>
+      <c r="B339" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
+        <v>676</v>
+      </c>
+      <c r="B340" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
+        <v>678</v>
+      </c>
+      <c r="B341" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
+        <v>680</v>
+      </c>
+      <c r="B342" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
+        <v>682</v>
+      </c>
+      <c r="B343" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
+        <v>684</v>
+      </c>
+      <c r="B344" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
+        <v>686</v>
+      </c>
+      <c r="B345" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
+        <v>688</v>
+      </c>
+      <c r="B346" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A347" t="s">
+        <v>690</v>
+      </c>
+      <c r="B347" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A348" t="s">
+        <v>692</v>
+      </c>
+      <c r="B348" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A349" t="s">
+        <v>694</v>
+      </c>
+      <c r="B349" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A350" t="s">
+        <v>696</v>
+      </c>
+      <c r="B350" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A351" t="s">
+        <v>698</v>
+      </c>
+      <c r="B351" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A352" t="s">
+        <v>700</v>
+      </c>
+      <c r="B352" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A353" t="s">
+        <v>702</v>
+      </c>
+      <c r="B353" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A354" t="s">
+        <v>704</v>
+      </c>
+      <c r="B354" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A355" t="s">
+        <v>706</v>
+      </c>
+      <c r="B355" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A356" t="s">
+        <v>708</v>
+      </c>
+      <c r="B356" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
+        <v>710</v>
+      </c>
+      <c r="B357" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A358" t="s">
+        <v>712</v>
+      </c>
+      <c r="B358" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A359" t="s">
+        <v>714</v>
+      </c>
+      <c r="B359" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A360" t="s">
+        <v>716</v>
+      </c>
+      <c r="B360" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A361" t="s">
+        <v>718</v>
+      </c>
+      <c r="B361" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A362" t="s">
+        <v>720</v>
+      </c>
+      <c r="B362" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A363" t="s">
+        <v>722</v>
+      </c>
+      <c r="B363" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A364" t="s">
+        <v>724</v>
+      </c>
+      <c r="B364" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A365" t="s">
+        <v>726</v>
+      </c>
+      <c r="B365" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A366" t="s">
+        <v>728</v>
+      </c>
+      <c r="B366" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A367" t="s">
+        <v>730</v>
+      </c>
+      <c r="B367" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A368" t="s">
+        <v>732</v>
+      </c>
+      <c r="B368" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>734</v>
+      </c>
+      <c r="B369" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A370" t="s">
+        <v>736</v>
+      </c>
+      <c r="B370" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A371" t="s">
+        <v>738</v>
+      </c>
+      <c r="B371" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A372" t="s">
+        <v>740</v>
+      </c>
+      <c r="B372" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A373" t="s">
+        <v>742</v>
+      </c>
+      <c r="B373" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A374" t="s">
+        <v>744</v>
+      </c>
+      <c r="B374" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A375" t="s">
+        <v>746</v>
+      </c>
+      <c r="B375" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A376" t="s">
+        <v>748</v>
+      </c>
+      <c r="B376" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A377" t="s">
+        <v>750</v>
+      </c>
+      <c r="B377" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A378" t="s">
+        <v>752</v>
+      </c>
+      <c r="B378" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A379" t="s">
+        <v>754</v>
+      </c>
+      <c r="B379" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A380" t="s">
+        <v>756</v>
+      </c>
+      <c r="B380" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A381" t="s">
+        <v>758</v>
+      </c>
+      <c r="B381" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A382" t="s">
+        <v>760</v>
+      </c>
+      <c r="B382" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A383" t="s">
+        <v>762</v>
+      </c>
+      <c r="B383" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A384" t="s">
+        <v>764</v>
+      </c>
+      <c r="B384" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A385" t="s">
+        <v>766</v>
+      </c>
+      <c r="B385" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A386" t="s">
+        <v>768</v>
+      </c>
+      <c r="B386" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A387" t="s">
+        <v>770</v>
+      </c>
+      <c r="B387" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A388" t="s">
+        <v>772</v>
+      </c>
+      <c r="B388" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A389" t="s">
+        <v>774</v>
+      </c>
+      <c r="B389" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A390" t="s">
+        <v>776</v>
+      </c>
+      <c r="B390" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A391" t="s">
+        <v>778</v>
+      </c>
+      <c r="B391" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A392" t="s">
+        <v>780</v>
+      </c>
+      <c r="B392" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A393" t="s">
+        <v>782</v>
+      </c>
+      <c r="B393" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A394" t="s">
+        <v>784</v>
+      </c>
+      <c r="B394" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A395" t="s">
+        <v>786</v>
+      </c>
+      <c r="B395" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A396" t="s">
+        <v>788</v>
+      </c>
+      <c r="B396" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A397" t="s">
+        <v>790</v>
+      </c>
+      <c r="B397" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A398" t="s">
+        <v>792</v>
+      </c>
+      <c r="B398" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A399" t="s">
+        <v>794</v>
+      </c>
+      <c r="B399" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A400" t="s">
+        <v>796</v>
+      </c>
+      <c r="B400" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A401" t="s">
+        <v>798</v>
+      </c>
+      <c r="B401" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A402" t="s">
+        <v>800</v>
+      </c>
+      <c r="B402" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A403" t="s">
+        <v>802</v>
+      </c>
+      <c r="B403" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A404" t="s">
+        <v>804</v>
+      </c>
+      <c r="B404" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A405" t="s">
+        <v>806</v>
+      </c>
+      <c r="B405" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A406" t="s">
+        <v>808</v>
+      </c>
+      <c r="B406" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A407" t="s">
+        <v>810</v>
+      </c>
+      <c r="B407" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A408" t="s">
+        <v>812</v>
+      </c>
+      <c r="B408" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A409" t="s">
+        <v>814</v>
+      </c>
+      <c r="B409" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A410" t="s">
+        <v>816</v>
+      </c>
+      <c r="B410" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A411" t="s">
+        <v>818</v>
+      </c>
+      <c r="B411" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A412" t="s">
+        <v>820</v>
+      </c>
+      <c r="B412" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A413" t="s">
+        <v>822</v>
+      </c>
+      <c r="B413" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A414" t="s">
+        <v>824</v>
+      </c>
+      <c r="B414" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A415" t="s">
+        <v>826</v>
+      </c>
+      <c r="B415" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A416" t="s">
+        <v>828</v>
+      </c>
+      <c r="B416" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A417" t="s">
+        <v>830</v>
+      </c>
+      <c r="B417" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A418" t="s">
+        <v>832</v>
+      </c>
+      <c r="B418" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A419" t="s">
+        <v>834</v>
+      </c>
+      <c r="B419" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A420" t="s">
+        <v>836</v>
+      </c>
+      <c r="B420" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A421" t="s">
+        <v>838</v>
+      </c>
+      <c r="B421" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A422" t="s">
+        <v>840</v>
+      </c>
+      <c r="B422" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A423" t="s">
+        <v>842</v>
+      </c>
+      <c r="B423" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A424" t="s">
+        <v>844</v>
+      </c>
+      <c r="B424" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A425" t="s">
+        <v>846</v>
+      </c>
+      <c r="B425" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A426" t="s">
+        <v>848</v>
+      </c>
+      <c r="B426" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A427" t="s">
+        <v>850</v>
+      </c>
+      <c r="B427" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A428" t="s">
+        <v>852</v>
+      </c>
+      <c r="B428" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A429" t="s">
+        <v>854</v>
+      </c>
+      <c r="B429" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A430" t="s">
+        <v>856</v>
+      </c>
+      <c r="B430" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A431" t="s">
+        <v>858</v>
+      </c>
+      <c r="B431" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A432" t="s">
+        <v>860</v>
+      </c>
+      <c r="B432" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A433" t="s">
+        <v>862</v>
+      </c>
+      <c r="B433" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A434" t="s">
+        <v>864</v>
+      </c>
+      <c r="B434" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A435" t="s">
+        <v>866</v>
+      </c>
+      <c r="B435" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A436" t="s">
+        <v>868</v>
+      </c>
+      <c r="B436" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A437" t="s">
+        <v>870</v>
+      </c>
+      <c r="B437" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
+        <v>872</v>
+      </c>
+      <c r="B438" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A439" t="s">
+        <v>874</v>
+      </c>
+      <c r="B439" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A440" t="s">
+        <v>876</v>
+      </c>
+      <c r="B440" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A441" t="s">
+        <v>878</v>
+      </c>
+      <c r="B441" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A442" t="s">
+        <v>880</v>
+      </c>
+      <c r="B442" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A443" t="s">
+        <v>882</v>
+      </c>
+      <c r="B443" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A444" t="s">
+        <v>884</v>
+      </c>
+      <c r="B444" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A445" t="s">
+        <v>886</v>
+      </c>
+      <c r="B445" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A446" t="s">
+        <v>888</v>
+      </c>
+      <c r="B446" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A447" t="s">
+        <v>890</v>
+      </c>
+      <c r="B447" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A448" t="s">
+        <v>892</v>
+      </c>
+      <c r="B448" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A449" t="s">
+        <v>894</v>
+      </c>
+      <c r="B449" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A450" t="s">
+        <v>896</v>
+      </c>
+      <c r="B450" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A451" t="s">
+        <v>898</v>
+      </c>
+      <c r="B451" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A452" t="s">
+        <v>900</v>
+      </c>
+      <c r="B452" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A453" t="s">
+        <v>902</v>
+      </c>
+      <c r="B453" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A454" t="s">
+        <v>904</v>
+      </c>
+      <c r="B454" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A455" t="s">
+        <v>906</v>
+      </c>
+      <c r="B455" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A456" t="s">
+        <v>908</v>
+      </c>
+      <c r="B456" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A457" t="s">
+        <v>910</v>
+      </c>
+      <c r="B457" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A458" t="s">
+        <v>912</v>
+      </c>
+      <c r="B458" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A459" t="s">
+        <v>914</v>
+      </c>
+      <c r="B459" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A460" t="s">
+        <v>916</v>
+      </c>
+      <c r="B460" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A461" t="s">
+        <v>918</v>
+      </c>
+      <c r="B461" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A462" t="s">
+        <v>920</v>
+      </c>
+      <c r="B462" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A463" t="s">
+        <v>922</v>
+      </c>
+      <c r="B463" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A464" t="s">
+        <v>924</v>
+      </c>
+      <c r="B464" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A465" t="s">
+        <v>926</v>
+      </c>
+      <c r="B465" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A466" t="s">
+        <v>928</v>
+      </c>
+      <c r="B466" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A467" t="s">
+        <v>930</v>
+      </c>
+      <c r="B467" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A468" t="s">
+        <v>932</v>
+      </c>
+      <c r="B468" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A469" t="s">
+        <v>934</v>
+      </c>
+      <c r="B469" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A470" t="s">
+        <v>936</v>
+      </c>
+      <c r="B470" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A471" t="s">
+        <v>938</v>
+      </c>
+      <c r="B471" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A472" t="s">
+        <v>940</v>
+      </c>
+      <c r="B472" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A473" t="s">
+        <v>942</v>
+      </c>
+      <c r="B473" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A474" t="s">
+        <v>944</v>
+      </c>
+      <c r="B474" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A475" t="s">
+        <v>946</v>
+      </c>
+      <c r="B475" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A476" t="s">
+        <v>950</v>
+      </c>
+      <c r="B476" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A477" t="s">
+        <v>951</v>
+      </c>
+      <c r="B477" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A478" t="s">
+        <v>952</v>
+      </c>
+      <c r="B478" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A479" t="s">
+        <v>953</v>
+      </c>
+      <c r="B479" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A480" t="s">
+        <v>954</v>
+      </c>
+      <c r="B480" t="s">
+        <v>959</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1104\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437AD2C-D426-4C15-ABD3-68D68BF387D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E260A69-CB8A-4C2E-AA27-78BCCD27CAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1380" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1050">
   <si>
     <t>_Path</t>
   </si>
@@ -2930,6 +2931,276 @@
   <si>
     <t>Prototype_Component_Texture_UI_GaugeFrame_W1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Play_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Menu_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Equip_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Equip_1.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Equip_2.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Equip_3.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Equip_4.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Equip_5.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Equip_6.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Inven_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Inven_1.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Inven_2.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Inven_3.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Inven_4.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Inven_5.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Stat_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Option_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Option_1.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Menu_1.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Tuto_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\ItemInfo_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\ItemInfo_1.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\ItemInfo_2.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\ItemInfo_3.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Play_1.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\LevelUp_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\LevelUp_1.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\LevelUp_2.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\NPC_0.dds</t>
+  </si>
+  <si>
+    <t>F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\NPC_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Play_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Menu_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Equip_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Equip_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Equip_2.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Equip_3.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Equip_4.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Equip_5.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Equip_6.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Inven_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Inven_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Inven_2.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Inven_3.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Inven_4.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Inven_5.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Stat_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Option_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Option_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Menu_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Tuto_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/ItemInfo_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/ItemInfo_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/ItemInfo_2.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/ItemInfo_3.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Play_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/LevelUp_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/LevelUp_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/LevelUp_2.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/NPC_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/NPC_1.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Play_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Menu_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Equip_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Equip_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Equip_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Equip_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Equip_4</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Equip_5</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Equip_6</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Inven_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Inven_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Inven_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Inven_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Inven_4</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Inven_5</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Stat_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Option_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Option_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Menu_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Tuto_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_ItemInfo_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_ItemInfo_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_ItemInfo_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_ItemInfo_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_Play_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_LevelUp_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_LevelUp_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_LevelUp_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_NPC_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Capture_NPC_1</t>
   </si>
 </sst>
 </file>
@@ -3313,10 +3584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="B476" sqref="B476:C480"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8603,6 +8874,336 @@
         <v>959</v>
       </c>
     </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A481">
+        <v>478</v>
+      </c>
+      <c r="B481" t="s">
+        <v>990</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A482">
+        <v>479</v>
+      </c>
+      <c r="B482" t="s">
+        <v>991</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A483">
+        <v>480</v>
+      </c>
+      <c r="B483" t="s">
+        <v>992</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A484">
+        <v>481</v>
+      </c>
+      <c r="B484" t="s">
+        <v>993</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A485">
+        <v>482</v>
+      </c>
+      <c r="B485" t="s">
+        <v>994</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A486">
+        <v>483</v>
+      </c>
+      <c r="B486" t="s">
+        <v>995</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A487">
+        <v>484</v>
+      </c>
+      <c r="B487" t="s">
+        <v>996</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A488">
+        <v>485</v>
+      </c>
+      <c r="B488" t="s">
+        <v>997</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A489">
+        <v>486</v>
+      </c>
+      <c r="B489" t="s">
+        <v>998</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A490">
+        <v>487</v>
+      </c>
+      <c r="B490" t="s">
+        <v>999</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A491">
+        <v>488</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A492">
+        <v>489</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A493">
+        <v>490</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A494">
+        <v>491</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A495">
+        <v>492</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A496">
+        <v>493</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A497">
+        <v>494</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A498">
+        <v>495</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A499">
+        <v>496</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A500">
+        <v>497</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A501">
+        <v>498</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A502">
+        <v>499</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A503">
+        <v>500</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A504">
+        <v>501</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A505">
+        <v>502</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A506">
+        <v>503</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A507">
+        <v>504</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A508">
+        <v>505</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A509">
+        <v>506</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A510">
+        <v>507</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1049</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8611,10 +9212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B480"/>
+  <dimension ref="A1:B510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:B480"/>
+    <sheetView topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="A481" sqref="A481:B510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12461,6 +13062,776 @@
         <v>959</v>
       </c>
     </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A481" t="s">
+        <v>990</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A482" t="s">
+        <v>991</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A483" t="s">
+        <v>992</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A484" t="s">
+        <v>993</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A485" t="s">
+        <v>994</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A486" t="s">
+        <v>995</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A487" t="s">
+        <v>996</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A488" t="s">
+        <v>997</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A489" t="s">
+        <v>998</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A490" t="s">
+        <v>999</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A491" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A492" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A493" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A494" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A495" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A496" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A497" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A498" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A499" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A500" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A501" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A502" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A503" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A504" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A505" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A506" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A507" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A508" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A509" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A510" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7AAB77-4722-4270-81B5-9318EDC34D9C}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="12" max="12" width="37.09765625" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>960</v>
+      </c>
+      <c r="L1" t="str">
+        <f>"../"&amp;SUBSTITUTE(RIGHT(A1,LEN(A1)-FIND("Bin",A1)+1),"\","/")</f>
+        <v>../Bin/Resources/Textures/UI/Play_0.dds</v>
+      </c>
+      <c r="M1" t="str">
+        <f>RIGHT(L1,LEN(L1)-FIND("UI",L1)-2)</f>
+        <v>Play_0.dds</v>
+      </c>
+      <c r="N1" t="str">
+        <f>"Prototype_Texture_UI_Capture_"&amp;LEFT(M1,LEN(M1)-4)</f>
+        <v>Prototype_Texture_UI_Capture_Play_0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>961</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L30" si="0">"../"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
+        <v>../Bin/Resources/Textures/UI/Menu_0.dds</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
+        <v>Menu_0.dds</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N30" si="2">"Prototype_Texture_UI_Capture_"&amp;LEFT(M2,LEN(M2)-4)</f>
+        <v>Prototype_Texture_UI_Capture_Menu_0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>962</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Equip_0.dds</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="1"/>
+        <v>Equip_0.dds</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Equip_0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>963</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Equip_1.dds</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>Equip_1.dds</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Equip_1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>964</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Equip_2.dds</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>Equip_2.dds</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Equip_2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>965</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Equip_3.dds</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>Equip_3.dds</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Equip_3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>966</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Equip_4.dds</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>Equip_4.dds</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Equip_4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>967</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Equip_5.dds</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>Equip_5.dds</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Equip_5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>968</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Equip_6.dds</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>Equip_6.dds</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Equip_6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>969</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Inven_0.dds</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>Inven_0.dds</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Inven_0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>970</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Inven_1.dds</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>Inven_1.dds</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Inven_1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>971</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Inven_2.dds</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>Inven_2.dds</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Inven_2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>972</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Inven_3.dds</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>Inven_3.dds</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Inven_3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>973</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Inven_4.dds</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>Inven_4.dds</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Inven_4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>974</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Inven_5.dds</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>Inven_5.dds</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Inven_5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>975</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Stat_0.dds</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>Stat_0.dds</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Stat_0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>976</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Option_0.dds</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>Option_0.dds</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Option_0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>977</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Option_1.dds</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>Option_1.dds</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Option_1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>978</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Menu_1.dds</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>Menu_1.dds</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Menu_1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>979</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Tuto_0.dds</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuto_0.dds</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Tuto_0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>980</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/ItemInfo_0.dds</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>ItemInfo_0.dds</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_ItemInfo_0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>981</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/ItemInfo_1.dds</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>ItemInfo_1.dds</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_ItemInfo_1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>982</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/ItemInfo_2.dds</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>ItemInfo_2.dds</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_ItemInfo_2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>983</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/ItemInfo_3.dds</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>ItemInfo_3.dds</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_ItemInfo_3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>984</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/Play_1.dds</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>Play_1.dds</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_Play_1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>985</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/LevelUp_0.dds</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelUp_0.dds</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_LevelUp_0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>986</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/LevelUp_1.dds</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelUp_1.dds</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_LevelUp_1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>987</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/LevelUp_2.dds</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelUp_2.dds</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_LevelUp_2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>988</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/NPC_0.dds</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>NPC_0.dds</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_NPC_0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>989</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>../Bin/Resources/Textures/UI/NPC_1.dds</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>NPC_1.dds</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>Prototype_Texture_UI_Capture_NPC_1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC69C66A-9E48-4741-91A5-BB66910E4B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBDF371-3743-4582-BE81-882AEAD02AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1345">
   <si>
     <t>_Path</t>
   </si>
@@ -3113,255 +3113,6 @@
     <t>Prototype_Texture_UI_Capture_NPC_1</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AdvanceUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AllGaugeMaxUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AtkCarDmgUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AtkHumDmgUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AtkPupDmgUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AtkSpeedUpStack1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AtkSpeedUpStack2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AtkSpeedUpStack3.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_AtkSpeedUpStack4.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss3.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss3AtkOnceUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss4.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss5.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss6.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss6Stack1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss6Stack2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss6Stack3.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss6Stack4.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss7.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss8.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss9.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Boss10.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Cat.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_CriAtkUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_DefUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_ElecAtkUpStack1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_ElecAtkUpStack2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_ElecAtkUpStack3.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_ElecAtkUpStack4.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_ErgoGainUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_Fox.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_HealthMaxUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_HpAutoRecovery.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_MotivityUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_RegionMaxUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_ResistUp2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_StaminaMaxUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_StaminaRecoveryUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_TechniqueUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_WeightLimitUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Amulet_WSCostDown.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_AcidAtkUp_1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_AcidAtkUp_2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_CatDust.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_CriRateUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_DestructionUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_DmgTakeDown.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_ElecAtkUp_1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_ElecAtkUp_2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_FableChargeUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_FireAtkUp_1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_FireAtkUp_2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_GuardBoost.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_HealHealth.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_HealRegion.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_Helper_Explosion.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_HelperAcidAtk.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_HelperDestructionUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_HelperElecAtk.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_HelperFireAtk.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_HelperNoDeathOnce.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_HelperProvoke.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_NoDeathErgoDrop.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_NoWSCost.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_PerfectGuard.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_ProtectDeathErgo.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_ResistUp1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_ResistUp2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_StaminaMaxUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_StaminaRecoveryUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Consume_WishStone_Friend.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_AcidAtkUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_AtkOnceUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_AtkRangeUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_AtkSpeedUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_AtkUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_CriRateUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_ElecAtkUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_Endure.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_FireAtkUp.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_AB_Fable_MultiHit.dds</t>
-  </si>
-  <si>
     <t>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AdvanceUp.dds</t>
   </si>
   <si>
@@ -3866,192 +3617,6 @@
     <t>Prototype_Texture_UI_UIT_AB_Fable_StaCostDown</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Acid_Defense_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Acid_Resistance_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Acid_Resistance_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Advance_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Ample_Acid.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Ample_Contamination.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Ample_Electric.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Ample_Fire.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_ArmsDamage_Increase_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_ArmsGage_Increase_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Capacity_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Cartridge_Stamina.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_ChargeAttack_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_ChargedGear_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_ChargeGear_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Collapsed_Resistance_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Collapsed_Resistance_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Contamination_Resistance_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Contamination_Resistance_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Destroyer_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Durability_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_DustCat.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_DustCat_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Ergo_Protect.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Ergo_Protect_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_FatalAttack_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_FireAttack.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Flame_Defense_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Flame_Resistance_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Flame_Resistance_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_GetFatal_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_GuardRegain_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_GuardStamina_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Health_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_HP_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_HPDotHeal.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Lightning_Defense_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Lightning_Resistance_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Lightning_Resistance_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_ListenerBless_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Motivity_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Possession_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Sofia_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Stamina_A.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Stamina_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Stamina_Speed_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_StaminaRecover.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_SteelShieldGear_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Tenacity_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Vigor_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Buff_Weight_P.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_CanReinforeced.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Change.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Cross.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Debuff_Acid.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Debuff_Collapsed.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Debuff_Contamination.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Debuff_Curse.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Debuff_Electricity.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Debuff_Fire.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Debuff_Impact.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Icon_Debuff_Penetrate.dds</t>
-  </si>
-  <si>
     <t>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Acid_Defense_P.dds</t>
   </si>
   <si>
@@ -4413,6 +3978,114 @@
   </si>
   <si>
     <t>Prototype_Texture_UI_UIT_Icon_Debuff_Penetrate</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_BG_Shadercompile.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Img_Loading_10.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_DeskBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_0.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_1.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_2.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_3.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_4.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_5.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Paper_0.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_PhotoBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_TipBg.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_BG_Shadercompile.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Img_Loading_10.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_DeskBg.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_Object_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_Object_1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_Object_2.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_Object_3.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_Object_4.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_Object_5.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_Paper_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_PhotoBg.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Loading_TipBg.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_BG_Shadercompile</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Img_Loading_10</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_DeskBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_Object_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_Object_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_Object_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_Object_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_Object_4</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_Object_5</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_Paper_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_PhotoBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Loading_TipBg</t>
   </si>
 </sst>
 </file>
@@ -4796,10 +4469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D656"/>
+  <dimension ref="A1:D668"/>
   <sheetViews>
-    <sheetView topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="F641" sqref="F641"/>
+    <sheetView topLeftCell="A643" workbookViewId="0">
+      <selection activeCell="E659" sqref="E659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10421,10 +10094,10 @@
         <v>508</v>
       </c>
       <c r="B511" t="s">
-        <v>1103</v>
+        <v>1020</v>
       </c>
       <c r="C511" t="s">
-        <v>1187</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -10432,10 +10105,10 @@
         <v>509</v>
       </c>
       <c r="B512" t="s">
-        <v>1104</v>
+        <v>1021</v>
       </c>
       <c r="C512" t="s">
-        <v>1188</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -10443,10 +10116,10 @@
         <v>510</v>
       </c>
       <c r="B513" t="s">
-        <v>1105</v>
+        <v>1022</v>
       </c>
       <c r="C513" t="s">
-        <v>1189</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -10454,10 +10127,10 @@
         <v>511</v>
       </c>
       <c r="B514" t="s">
-        <v>1106</v>
+        <v>1023</v>
       </c>
       <c r="C514" t="s">
-        <v>1190</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -10465,10 +10138,10 @@
         <v>512</v>
       </c>
       <c r="B515" t="s">
-        <v>1107</v>
+        <v>1024</v>
       </c>
       <c r="C515" t="s">
-        <v>1191</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -10476,10 +10149,10 @@
         <v>513</v>
       </c>
       <c r="B516" t="s">
-        <v>1108</v>
+        <v>1025</v>
       </c>
       <c r="C516" t="s">
-        <v>1192</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -10487,10 +10160,10 @@
         <v>514</v>
       </c>
       <c r="B517" t="s">
-        <v>1109</v>
+        <v>1026</v>
       </c>
       <c r="C517" t="s">
-        <v>1193</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -10498,10 +10171,10 @@
         <v>515</v>
       </c>
       <c r="B518" t="s">
-        <v>1110</v>
+        <v>1027</v>
       </c>
       <c r="C518" t="s">
-        <v>1194</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -10509,10 +10182,10 @@
         <v>516</v>
       </c>
       <c r="B519" t="s">
-        <v>1111</v>
+        <v>1028</v>
       </c>
       <c r="C519" t="s">
-        <v>1195</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -10520,10 +10193,10 @@
         <v>517</v>
       </c>
       <c r="B520" t="s">
-        <v>1112</v>
+        <v>1029</v>
       </c>
       <c r="C520" t="s">
-        <v>1196</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -10531,10 +10204,10 @@
         <v>518</v>
       </c>
       <c r="B521" t="s">
-        <v>1113</v>
+        <v>1030</v>
       </c>
       <c r="C521" t="s">
-        <v>1197</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -10542,10 +10215,10 @@
         <v>519</v>
       </c>
       <c r="B522" t="s">
-        <v>1114</v>
+        <v>1031</v>
       </c>
       <c r="C522" t="s">
-        <v>1198</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -10553,10 +10226,10 @@
         <v>520</v>
       </c>
       <c r="B523" t="s">
-        <v>1115</v>
+        <v>1032</v>
       </c>
       <c r="C523" t="s">
-        <v>1199</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -10564,10 +10237,10 @@
         <v>521</v>
       </c>
       <c r="B524" t="s">
-        <v>1116</v>
+        <v>1033</v>
       </c>
       <c r="C524" t="s">
-        <v>1200</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -10575,10 +10248,10 @@
         <v>522</v>
       </c>
       <c r="B525" t="s">
-        <v>1117</v>
+        <v>1034</v>
       </c>
       <c r="C525" t="s">
-        <v>1201</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -10586,10 +10259,10 @@
         <v>523</v>
       </c>
       <c r="B526" t="s">
-        <v>1118</v>
+        <v>1035</v>
       </c>
       <c r="C526" t="s">
-        <v>1202</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -10597,10 +10270,10 @@
         <v>524</v>
       </c>
       <c r="B527" t="s">
-        <v>1119</v>
+        <v>1036</v>
       </c>
       <c r="C527" t="s">
-        <v>1203</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -10608,10 +10281,10 @@
         <v>525</v>
       </c>
       <c r="B528" t="s">
-        <v>1120</v>
+        <v>1037</v>
       </c>
       <c r="C528" t="s">
-        <v>1204</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -10619,10 +10292,10 @@
         <v>526</v>
       </c>
       <c r="B529" t="s">
-        <v>1121</v>
+        <v>1038</v>
       </c>
       <c r="C529" t="s">
-        <v>1205</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -10630,10 +10303,10 @@
         <v>527</v>
       </c>
       <c r="B530" t="s">
-        <v>1122</v>
+        <v>1039</v>
       </c>
       <c r="C530" t="s">
-        <v>1206</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -10641,10 +10314,10 @@
         <v>528</v>
       </c>
       <c r="B531" t="s">
-        <v>1123</v>
+        <v>1040</v>
       </c>
       <c r="C531" t="s">
-        <v>1207</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -10652,10 +10325,10 @@
         <v>529</v>
       </c>
       <c r="B532" t="s">
-        <v>1124</v>
+        <v>1041</v>
       </c>
       <c r="C532" t="s">
-        <v>1208</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -10663,10 +10336,10 @@
         <v>530</v>
       </c>
       <c r="B533" t="s">
-        <v>1125</v>
+        <v>1042</v>
       </c>
       <c r="C533" t="s">
-        <v>1209</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -10674,10 +10347,10 @@
         <v>531</v>
       </c>
       <c r="B534" t="s">
-        <v>1126</v>
+        <v>1043</v>
       </c>
       <c r="C534" t="s">
-        <v>1210</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -10685,10 +10358,10 @@
         <v>532</v>
       </c>
       <c r="B535" t="s">
-        <v>1127</v>
+        <v>1044</v>
       </c>
       <c r="C535" t="s">
-        <v>1211</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -10696,10 +10369,10 @@
         <v>533</v>
       </c>
       <c r="B536" t="s">
-        <v>1128</v>
+        <v>1045</v>
       </c>
       <c r="C536" t="s">
-        <v>1212</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -10707,10 +10380,10 @@
         <v>534</v>
       </c>
       <c r="B537" t="s">
-        <v>1129</v>
+        <v>1046</v>
       </c>
       <c r="C537" t="s">
-        <v>1213</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -10718,10 +10391,10 @@
         <v>535</v>
       </c>
       <c r="B538" t="s">
-        <v>1130</v>
+        <v>1047</v>
       </c>
       <c r="C538" t="s">
-        <v>1214</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -10729,10 +10402,10 @@
         <v>536</v>
       </c>
       <c r="B539" t="s">
-        <v>1131</v>
+        <v>1048</v>
       </c>
       <c r="C539" t="s">
-        <v>1215</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -10740,10 +10413,10 @@
         <v>537</v>
       </c>
       <c r="B540" t="s">
-        <v>1132</v>
+        <v>1049</v>
       </c>
       <c r="C540" t="s">
-        <v>1216</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -10751,10 +10424,10 @@
         <v>538</v>
       </c>
       <c r="B541" t="s">
-        <v>1133</v>
+        <v>1050</v>
       </c>
       <c r="C541" t="s">
-        <v>1217</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -10762,10 +10435,10 @@
         <v>539</v>
       </c>
       <c r="B542" t="s">
-        <v>1134</v>
+        <v>1051</v>
       </c>
       <c r="C542" t="s">
-        <v>1218</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -10773,10 +10446,10 @@
         <v>540</v>
       </c>
       <c r="B543" t="s">
-        <v>1135</v>
+        <v>1052</v>
       </c>
       <c r="C543" t="s">
-        <v>1219</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -10784,10 +10457,10 @@
         <v>541</v>
       </c>
       <c r="B544" t="s">
-        <v>1136</v>
+        <v>1053</v>
       </c>
       <c r="C544" t="s">
-        <v>1220</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -10795,10 +10468,10 @@
         <v>542</v>
       </c>
       <c r="B545" t="s">
-        <v>1137</v>
+        <v>1054</v>
       </c>
       <c r="C545" t="s">
-        <v>1221</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -10806,10 +10479,10 @@
         <v>543</v>
       </c>
       <c r="B546" t="s">
-        <v>1138</v>
+        <v>1055</v>
       </c>
       <c r="C546" t="s">
-        <v>1222</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -10817,10 +10490,10 @@
         <v>544</v>
       </c>
       <c r="B547" t="s">
-        <v>1139</v>
+        <v>1056</v>
       </c>
       <c r="C547" t="s">
-        <v>1223</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -10828,10 +10501,10 @@
         <v>545</v>
       </c>
       <c r="B548" t="s">
-        <v>1140</v>
+        <v>1057</v>
       </c>
       <c r="C548" t="s">
-        <v>1224</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -10839,10 +10512,10 @@
         <v>546</v>
       </c>
       <c r="B549" t="s">
-        <v>1141</v>
+        <v>1058</v>
       </c>
       <c r="C549" t="s">
-        <v>1225</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -10850,10 +10523,10 @@
         <v>547</v>
       </c>
       <c r="B550" t="s">
-        <v>1142</v>
+        <v>1059</v>
       </c>
       <c r="C550" t="s">
-        <v>1226</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -10861,10 +10534,10 @@
         <v>548</v>
       </c>
       <c r="B551" t="s">
-        <v>1143</v>
+        <v>1060</v>
       </c>
       <c r="C551" t="s">
-        <v>1227</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -10872,10 +10545,10 @@
         <v>549</v>
       </c>
       <c r="B552" t="s">
-        <v>1144</v>
+        <v>1061</v>
       </c>
       <c r="C552" t="s">
-        <v>1228</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -10883,10 +10556,10 @@
         <v>550</v>
       </c>
       <c r="B553" t="s">
-        <v>1145</v>
+        <v>1062</v>
       </c>
       <c r="C553" t="s">
-        <v>1229</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -10894,10 +10567,10 @@
         <v>551</v>
       </c>
       <c r="B554" t="s">
-        <v>1146</v>
+        <v>1063</v>
       </c>
       <c r="C554" t="s">
-        <v>1230</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -10905,10 +10578,10 @@
         <v>552</v>
       </c>
       <c r="B555" t="s">
-        <v>1147</v>
+        <v>1064</v>
       </c>
       <c r="C555" t="s">
-        <v>1231</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -10916,10 +10589,10 @@
         <v>553</v>
       </c>
       <c r="B556" t="s">
-        <v>1148</v>
+        <v>1065</v>
       </c>
       <c r="C556" t="s">
-        <v>1232</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -10927,10 +10600,10 @@
         <v>554</v>
       </c>
       <c r="B557" t="s">
-        <v>1149</v>
+        <v>1066</v>
       </c>
       <c r="C557" t="s">
-        <v>1233</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -10938,10 +10611,10 @@
         <v>555</v>
       </c>
       <c r="B558" t="s">
-        <v>1150</v>
+        <v>1067</v>
       </c>
       <c r="C558" t="s">
-        <v>1234</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -10949,10 +10622,10 @@
         <v>556</v>
       </c>
       <c r="B559" t="s">
-        <v>1151</v>
+        <v>1068</v>
       </c>
       <c r="C559" t="s">
-        <v>1235</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -10960,10 +10633,10 @@
         <v>557</v>
       </c>
       <c r="B560" t="s">
-        <v>1152</v>
+        <v>1069</v>
       </c>
       <c r="C560" t="s">
-        <v>1236</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -10971,10 +10644,10 @@
         <v>558</v>
       </c>
       <c r="B561" t="s">
-        <v>1153</v>
+        <v>1070</v>
       </c>
       <c r="C561" t="s">
-        <v>1237</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
@@ -10982,10 +10655,10 @@
         <v>559</v>
       </c>
       <c r="B562" t="s">
-        <v>1154</v>
+        <v>1071</v>
       </c>
       <c r="C562" t="s">
-        <v>1238</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -10993,10 +10666,10 @@
         <v>560</v>
       </c>
       <c r="B563" t="s">
-        <v>1155</v>
+        <v>1072</v>
       </c>
       <c r="C563" t="s">
-        <v>1239</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -11004,10 +10677,10 @@
         <v>561</v>
       </c>
       <c r="B564" t="s">
-        <v>1156</v>
+        <v>1073</v>
       </c>
       <c r="C564" t="s">
-        <v>1240</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -11015,10 +10688,10 @@
         <v>562</v>
       </c>
       <c r="B565" t="s">
-        <v>1157</v>
+        <v>1074</v>
       </c>
       <c r="C565" t="s">
-        <v>1241</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -11026,10 +10699,10 @@
         <v>563</v>
       </c>
       <c r="B566" t="s">
-        <v>1158</v>
+        <v>1075</v>
       </c>
       <c r="C566" t="s">
-        <v>1242</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -11037,10 +10710,10 @@
         <v>564</v>
       </c>
       <c r="B567" t="s">
-        <v>1159</v>
+        <v>1076</v>
       </c>
       <c r="C567" t="s">
-        <v>1243</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -11048,10 +10721,10 @@
         <v>565</v>
       </c>
       <c r="B568" t="s">
-        <v>1160</v>
+        <v>1077</v>
       </c>
       <c r="C568" t="s">
-        <v>1244</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -11059,10 +10732,10 @@
         <v>566</v>
       </c>
       <c r="B569" t="s">
-        <v>1161</v>
+        <v>1078</v>
       </c>
       <c r="C569" t="s">
-        <v>1245</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -11070,10 +10743,10 @@
         <v>567</v>
       </c>
       <c r="B570" t="s">
-        <v>1162</v>
+        <v>1079</v>
       </c>
       <c r="C570" t="s">
-        <v>1246</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -11081,10 +10754,10 @@
         <v>568</v>
       </c>
       <c r="B571" t="s">
-        <v>1163</v>
+        <v>1080</v>
       </c>
       <c r="C571" t="s">
-        <v>1247</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -11092,10 +10765,10 @@
         <v>569</v>
       </c>
       <c r="B572" t="s">
-        <v>1164</v>
+        <v>1081</v>
       </c>
       <c r="C572" t="s">
-        <v>1248</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -11103,10 +10776,10 @@
         <v>570</v>
       </c>
       <c r="B573" t="s">
-        <v>1165</v>
+        <v>1082</v>
       </c>
       <c r="C573" t="s">
-        <v>1249</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -11114,10 +10787,10 @@
         <v>571</v>
       </c>
       <c r="B574" t="s">
-        <v>1166</v>
+        <v>1083</v>
       </c>
       <c r="C574" t="s">
-        <v>1250</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -11125,10 +10798,10 @@
         <v>572</v>
       </c>
       <c r="B575" t="s">
-        <v>1167</v>
+        <v>1084</v>
       </c>
       <c r="C575" t="s">
-        <v>1251</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -11136,10 +10809,10 @@
         <v>573</v>
       </c>
       <c r="B576" t="s">
-        <v>1168</v>
+        <v>1085</v>
       </c>
       <c r="C576" t="s">
-        <v>1252</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -11147,10 +10820,10 @@
         <v>574</v>
       </c>
       <c r="B577" t="s">
-        <v>1169</v>
+        <v>1086</v>
       </c>
       <c r="C577" t="s">
-        <v>1253</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -11158,10 +10831,10 @@
         <v>575</v>
       </c>
       <c r="B578" t="s">
-        <v>1170</v>
+        <v>1087</v>
       </c>
       <c r="C578" t="s">
-        <v>1254</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -11169,10 +10842,10 @@
         <v>576</v>
       </c>
       <c r="B579" t="s">
-        <v>1171</v>
+        <v>1088</v>
       </c>
       <c r="C579" t="s">
-        <v>1255</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -11180,10 +10853,10 @@
         <v>577</v>
       </c>
       <c r="B580" t="s">
-        <v>1172</v>
+        <v>1089</v>
       </c>
       <c r="C580" t="s">
-        <v>1256</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -11191,10 +10864,10 @@
         <v>578</v>
       </c>
       <c r="B581" t="s">
-        <v>1173</v>
+        <v>1090</v>
       </c>
       <c r="C581" t="s">
-        <v>1257</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -11202,10 +10875,10 @@
         <v>579</v>
       </c>
       <c r="B582" t="s">
-        <v>1174</v>
+        <v>1091</v>
       </c>
       <c r="C582" t="s">
-        <v>1258</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -11213,10 +10886,10 @@
         <v>580</v>
       </c>
       <c r="B583" t="s">
-        <v>1175</v>
+        <v>1092</v>
       </c>
       <c r="C583" t="s">
-        <v>1259</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -11224,10 +10897,10 @@
         <v>581</v>
       </c>
       <c r="B584" t="s">
-        <v>1176</v>
+        <v>1093</v>
       </c>
       <c r="C584" t="s">
-        <v>1260</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -11235,10 +10908,10 @@
         <v>582</v>
       </c>
       <c r="B585" t="s">
-        <v>1177</v>
+        <v>1094</v>
       </c>
       <c r="C585" t="s">
-        <v>1261</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -11246,10 +10919,10 @@
         <v>583</v>
       </c>
       <c r="B586" t="s">
-        <v>1178</v>
+        <v>1095</v>
       </c>
       <c r="C586" t="s">
-        <v>1262</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -11257,10 +10930,10 @@
         <v>584</v>
       </c>
       <c r="B587" t="s">
-        <v>1179</v>
+        <v>1096</v>
       </c>
       <c r="C587" t="s">
-        <v>1263</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -11268,10 +10941,10 @@
         <v>585</v>
       </c>
       <c r="B588" t="s">
-        <v>1180</v>
+        <v>1097</v>
       </c>
       <c r="C588" t="s">
-        <v>1264</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -11279,10 +10952,10 @@
         <v>586</v>
       </c>
       <c r="B589" t="s">
-        <v>1181</v>
+        <v>1098</v>
       </c>
       <c r="C589" t="s">
-        <v>1265</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -11290,10 +10963,10 @@
         <v>587</v>
       </c>
       <c r="B590" t="s">
-        <v>1182</v>
+        <v>1099</v>
       </c>
       <c r="C590" t="s">
-        <v>1266</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -11301,10 +10974,10 @@
         <v>588</v>
       </c>
       <c r="B591" t="s">
-        <v>1183</v>
+        <v>1100</v>
       </c>
       <c r="C591" t="s">
-        <v>1267</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -11312,10 +10985,10 @@
         <v>589</v>
       </c>
       <c r="B592" t="s">
-        <v>1184</v>
+        <v>1101</v>
       </c>
       <c r="C592" t="s">
-        <v>1268</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -11323,10 +10996,10 @@
         <v>590</v>
       </c>
       <c r="B593" t="s">
-        <v>1185</v>
+        <v>1102</v>
       </c>
       <c r="C593" t="s">
-        <v>1269</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -11334,10 +11007,10 @@
         <v>591</v>
       </c>
       <c r="B594" t="s">
-        <v>1186</v>
+        <v>1103</v>
       </c>
       <c r="C594" t="s">
-        <v>1270</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -11345,10 +11018,10 @@
         <v>592</v>
       </c>
       <c r="B595" t="s">
-        <v>1333</v>
+        <v>1188</v>
       </c>
       <c r="C595" t="s">
-        <v>1392</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -11356,10 +11029,10 @@
         <v>593</v>
       </c>
       <c r="B596" t="s">
-        <v>1334</v>
+        <v>1189</v>
       </c>
       <c r="C596" t="s">
-        <v>1393</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -11367,10 +11040,10 @@
         <v>594</v>
       </c>
       <c r="B597" t="s">
-        <v>1335</v>
+        <v>1190</v>
       </c>
       <c r="C597" t="s">
-        <v>1394</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -11378,10 +11051,10 @@
         <v>595</v>
       </c>
       <c r="B598" t="s">
-        <v>1336</v>
+        <v>1191</v>
       </c>
       <c r="C598" t="s">
-        <v>1395</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -11389,10 +11062,10 @@
         <v>596</v>
       </c>
       <c r="B599" t="s">
-        <v>1337</v>
+        <v>1192</v>
       </c>
       <c r="C599" t="s">
-        <v>1396</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -11400,10 +11073,10 @@
         <v>597</v>
       </c>
       <c r="B600" t="s">
-        <v>1338</v>
+        <v>1193</v>
       </c>
       <c r="C600" t="s">
-        <v>1397</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -11411,10 +11084,10 @@
         <v>598</v>
       </c>
       <c r="B601" t="s">
-        <v>1339</v>
+        <v>1194</v>
       </c>
       <c r="C601" t="s">
-        <v>1398</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -11422,10 +11095,10 @@
         <v>599</v>
       </c>
       <c r="B602" t="s">
-        <v>1340</v>
+        <v>1195</v>
       </c>
       <c r="C602" t="s">
-        <v>1399</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -11433,10 +11106,10 @@
         <v>600</v>
       </c>
       <c r="B603" t="s">
-        <v>1341</v>
+        <v>1196</v>
       </c>
       <c r="C603" t="s">
-        <v>1400</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -11444,10 +11117,10 @@
         <v>601</v>
       </c>
       <c r="B604" t="s">
-        <v>1342</v>
+        <v>1197</v>
       </c>
       <c r="C604" t="s">
-        <v>1401</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -11455,10 +11128,10 @@
         <v>602</v>
       </c>
       <c r="B605" t="s">
-        <v>1343</v>
+        <v>1198</v>
       </c>
       <c r="C605" t="s">
-        <v>1402</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -11466,10 +11139,10 @@
         <v>603</v>
       </c>
       <c r="B606" t="s">
-        <v>1344</v>
+        <v>1199</v>
       </c>
       <c r="C606" t="s">
-        <v>1403</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -11477,10 +11150,10 @@
         <v>604</v>
       </c>
       <c r="B607" t="s">
-        <v>1345</v>
+        <v>1200</v>
       </c>
       <c r="C607" t="s">
-        <v>1404</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -11488,10 +11161,10 @@
         <v>605</v>
       </c>
       <c r="B608" t="s">
-        <v>1346</v>
+        <v>1201</v>
       </c>
       <c r="C608" t="s">
-        <v>1405</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -11499,10 +11172,10 @@
         <v>606</v>
       </c>
       <c r="B609" t="s">
-        <v>1347</v>
+        <v>1202</v>
       </c>
       <c r="C609" t="s">
-        <v>1406</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -11510,10 +11183,10 @@
         <v>607</v>
       </c>
       <c r="B610" t="s">
-        <v>1348</v>
+        <v>1203</v>
       </c>
       <c r="C610" t="s">
-        <v>1407</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -11521,10 +11194,10 @@
         <v>608</v>
       </c>
       <c r="B611" t="s">
-        <v>1349</v>
+        <v>1204</v>
       </c>
       <c r="C611" t="s">
-        <v>1408</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -11532,10 +11205,10 @@
         <v>609</v>
       </c>
       <c r="B612" t="s">
-        <v>1350</v>
+        <v>1205</v>
       </c>
       <c r="C612" t="s">
-        <v>1409</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -11543,10 +11216,10 @@
         <v>610</v>
       </c>
       <c r="B613" t="s">
-        <v>1351</v>
+        <v>1206</v>
       </c>
       <c r="C613" t="s">
-        <v>1410</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -11554,10 +11227,10 @@
         <v>611</v>
       </c>
       <c r="B614" t="s">
-        <v>1352</v>
+        <v>1207</v>
       </c>
       <c r="C614" t="s">
-        <v>1411</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -11565,10 +11238,10 @@
         <v>612</v>
       </c>
       <c r="B615" t="s">
-        <v>1353</v>
+        <v>1208</v>
       </c>
       <c r="C615" t="s">
-        <v>1412</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -11576,10 +11249,10 @@
         <v>613</v>
       </c>
       <c r="B616" t="s">
-        <v>1354</v>
+        <v>1209</v>
       </c>
       <c r="C616" t="s">
-        <v>1413</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -11587,10 +11260,10 @@
         <v>614</v>
       </c>
       <c r="B617" t="s">
-        <v>1355</v>
+        <v>1210</v>
       </c>
       <c r="C617" t="s">
-        <v>1414</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -11598,10 +11271,10 @@
         <v>615</v>
       </c>
       <c r="B618" t="s">
-        <v>1356</v>
+        <v>1211</v>
       </c>
       <c r="C618" t="s">
-        <v>1415</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -11609,10 +11282,10 @@
         <v>616</v>
       </c>
       <c r="B619" t="s">
-        <v>1357</v>
+        <v>1212</v>
       </c>
       <c r="C619" t="s">
-        <v>1416</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -11620,10 +11293,10 @@
         <v>617</v>
       </c>
       <c r="B620" t="s">
-        <v>1358</v>
+        <v>1213</v>
       </c>
       <c r="C620" t="s">
-        <v>1417</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -11631,10 +11304,10 @@
         <v>618</v>
       </c>
       <c r="B621" t="s">
-        <v>1359</v>
+        <v>1214</v>
       </c>
       <c r="C621" t="s">
-        <v>1418</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -11642,10 +11315,10 @@
         <v>619</v>
       </c>
       <c r="B622" t="s">
-        <v>1360</v>
+        <v>1215</v>
       </c>
       <c r="C622" t="s">
-        <v>1419</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -11653,10 +11326,10 @@
         <v>620</v>
       </c>
       <c r="B623" t="s">
-        <v>1361</v>
+        <v>1216</v>
       </c>
       <c r="C623" t="s">
-        <v>1420</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -11664,10 +11337,10 @@
         <v>621</v>
       </c>
       <c r="B624" t="s">
-        <v>1362</v>
+        <v>1217</v>
       </c>
       <c r="C624" t="s">
-        <v>1421</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -11675,10 +11348,10 @@
         <v>622</v>
       </c>
       <c r="B625" t="s">
-        <v>1363</v>
+        <v>1218</v>
       </c>
       <c r="C625" t="s">
-        <v>1422</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -11686,10 +11359,10 @@
         <v>623</v>
       </c>
       <c r="B626" t="s">
-        <v>1364</v>
+        <v>1219</v>
       </c>
       <c r="C626" t="s">
-        <v>1423</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -11697,10 +11370,10 @@
         <v>624</v>
       </c>
       <c r="B627" t="s">
-        <v>1365</v>
+        <v>1220</v>
       </c>
       <c r="C627" t="s">
-        <v>1424</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -11708,10 +11381,10 @@
         <v>625</v>
       </c>
       <c r="B628" t="s">
-        <v>1366</v>
+        <v>1221</v>
       </c>
       <c r="C628" t="s">
-        <v>1425</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -11719,10 +11392,10 @@
         <v>626</v>
       </c>
       <c r="B629" t="s">
-        <v>1367</v>
+        <v>1222</v>
       </c>
       <c r="C629" t="s">
-        <v>1426</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -11730,10 +11403,10 @@
         <v>627</v>
       </c>
       <c r="B630" t="s">
-        <v>1368</v>
+        <v>1223</v>
       </c>
       <c r="C630" t="s">
-        <v>1427</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -11741,10 +11414,10 @@
         <v>628</v>
       </c>
       <c r="B631" t="s">
-        <v>1369</v>
+        <v>1224</v>
       </c>
       <c r="C631" t="s">
-        <v>1428</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -11752,10 +11425,10 @@
         <v>629</v>
       </c>
       <c r="B632" t="s">
-        <v>1370</v>
+        <v>1225</v>
       </c>
       <c r="C632" t="s">
-        <v>1429</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -11763,10 +11436,10 @@
         <v>630</v>
       </c>
       <c r="B633" t="s">
-        <v>1371</v>
+        <v>1226</v>
       </c>
       <c r="C633" t="s">
-        <v>1430</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -11774,10 +11447,10 @@
         <v>631</v>
       </c>
       <c r="B634" t="s">
-        <v>1372</v>
+        <v>1227</v>
       </c>
       <c r="C634" t="s">
-        <v>1431</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -11785,10 +11458,10 @@
         <v>632</v>
       </c>
       <c r="B635" t="s">
-        <v>1373</v>
+        <v>1228</v>
       </c>
       <c r="C635" t="s">
-        <v>1432</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -11796,10 +11469,10 @@
         <v>633</v>
       </c>
       <c r="B636" t="s">
-        <v>1374</v>
+        <v>1229</v>
       </c>
       <c r="C636" t="s">
-        <v>1433</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -11807,10 +11480,10 @@
         <v>634</v>
       </c>
       <c r="B637" t="s">
-        <v>1375</v>
+        <v>1230</v>
       </c>
       <c r="C637" t="s">
-        <v>1434</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -11818,10 +11491,10 @@
         <v>635</v>
       </c>
       <c r="B638" t="s">
-        <v>1376</v>
+        <v>1231</v>
       </c>
       <c r="C638" t="s">
-        <v>1435</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -11829,10 +11502,10 @@
         <v>636</v>
       </c>
       <c r="B639" t="s">
-        <v>1377</v>
+        <v>1232</v>
       </c>
       <c r="C639" t="s">
-        <v>1436</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -11840,10 +11513,10 @@
         <v>637</v>
       </c>
       <c r="B640" t="s">
-        <v>1378</v>
+        <v>1233</v>
       </c>
       <c r="C640" t="s">
-        <v>1437</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -11851,10 +11524,10 @@
         <v>638</v>
       </c>
       <c r="B641" t="s">
-        <v>1379</v>
+        <v>1234</v>
       </c>
       <c r="C641" t="s">
-        <v>1438</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -11862,10 +11535,10 @@
         <v>639</v>
       </c>
       <c r="B642" t="s">
-        <v>1380</v>
+        <v>1235</v>
       </c>
       <c r="C642" t="s">
-        <v>1439</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -11873,10 +11546,10 @@
         <v>640</v>
       </c>
       <c r="B643" t="s">
-        <v>1381</v>
+        <v>1236</v>
       </c>
       <c r="C643" t="s">
-        <v>1440</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -11884,10 +11557,10 @@
         <v>641</v>
       </c>
       <c r="B644" t="s">
-        <v>1382</v>
+        <v>1237</v>
       </c>
       <c r="C644" t="s">
-        <v>1441</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -11895,10 +11568,10 @@
         <v>642</v>
       </c>
       <c r="B645" t="s">
-        <v>1383</v>
+        <v>1238</v>
       </c>
       <c r="C645" t="s">
-        <v>1442</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -11909,7 +11582,7 @@
         <v>378</v>
       </c>
       <c r="C646" t="s">
-        <v>1443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -11920,7 +11593,7 @@
         <v>380</v>
       </c>
       <c r="C647" t="s">
-        <v>1444</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -11931,7 +11604,7 @@
         <v>382</v>
       </c>
       <c r="C648" t="s">
-        <v>1445</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -11939,10 +11612,10 @@
         <v>646</v>
       </c>
       <c r="B649" t="s">
-        <v>1384</v>
+        <v>1239</v>
       </c>
       <c r="C649" t="s">
-        <v>1446</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -11950,10 +11623,10 @@
         <v>647</v>
       </c>
       <c r="B650" t="s">
-        <v>1385</v>
+        <v>1240</v>
       </c>
       <c r="C650" t="s">
-        <v>1447</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -11961,10 +11634,10 @@
         <v>648</v>
       </c>
       <c r="B651" t="s">
-        <v>1386</v>
+        <v>1241</v>
       </c>
       <c r="C651" t="s">
-        <v>1448</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -11972,10 +11645,10 @@
         <v>649</v>
       </c>
       <c r="B652" t="s">
-        <v>1387</v>
+        <v>1242</v>
       </c>
       <c r="C652" t="s">
-        <v>1449</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -11983,10 +11656,10 @@
         <v>650</v>
       </c>
       <c r="B653" t="s">
-        <v>1388</v>
+        <v>1243</v>
       </c>
       <c r="C653" t="s">
-        <v>1450</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -11994,10 +11667,10 @@
         <v>651</v>
       </c>
       <c r="B654" t="s">
-        <v>1389</v>
+        <v>1244</v>
       </c>
       <c r="C654" t="s">
-        <v>1451</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -12005,10 +11678,10 @@
         <v>652</v>
       </c>
       <c r="B655" t="s">
-        <v>1390</v>
+        <v>1245</v>
       </c>
       <c r="C655" t="s">
-        <v>1452</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -12016,10 +11689,142 @@
         <v>653</v>
       </c>
       <c r="B656" t="s">
-        <v>1391</v>
+        <v>1246</v>
       </c>
       <c r="C656" t="s">
-        <v>1453</v>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>654</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>655</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>656</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>657</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>658</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>659</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>660</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>661</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>662</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>663</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>664</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>665</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1344</v>
       </c>
     </row>
   </sheetData>
@@ -12030,10 +11835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B656"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
-      <selection activeCell="A677" sqref="A677"/>
+    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
+      <selection activeCell="A676" sqref="A676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16122,1082 +15927,1082 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>1103</v>
+        <v>1020</v>
       </c>
       <c r="B511" t="s">
-        <v>1187</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>1104</v>
+        <v>1021</v>
       </c>
       <c r="B512" t="s">
-        <v>1188</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>1105</v>
+        <v>1022</v>
       </c>
       <c r="B513" t="s">
-        <v>1189</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>1106</v>
+        <v>1023</v>
       </c>
       <c r="B514" t="s">
-        <v>1190</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>1107</v>
+        <v>1024</v>
       </c>
       <c r="B515" t="s">
-        <v>1191</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>1108</v>
+        <v>1025</v>
       </c>
       <c r="B516" t="s">
-        <v>1192</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>1109</v>
+        <v>1026</v>
       </c>
       <c r="B517" t="s">
-        <v>1193</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>1110</v>
+        <v>1027</v>
       </c>
       <c r="B518" t="s">
-        <v>1194</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1111</v>
+        <v>1028</v>
       </c>
       <c r="B519" t="s">
-        <v>1195</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>1112</v>
+        <v>1029</v>
       </c>
       <c r="B520" t="s">
-        <v>1196</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>1113</v>
+        <v>1030</v>
       </c>
       <c r="B521" t="s">
-        <v>1197</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1114</v>
+        <v>1031</v>
       </c>
       <c r="B522" t="s">
-        <v>1198</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1115</v>
+        <v>1032</v>
       </c>
       <c r="B523" t="s">
-        <v>1199</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1116</v>
+        <v>1033</v>
       </c>
       <c r="B524" t="s">
-        <v>1200</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>1117</v>
+        <v>1034</v>
       </c>
       <c r="B525" t="s">
-        <v>1201</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1118</v>
+        <v>1035</v>
       </c>
       <c r="B526" t="s">
-        <v>1202</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1119</v>
+        <v>1036</v>
       </c>
       <c r="B527" t="s">
-        <v>1203</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>1120</v>
+        <v>1037</v>
       </c>
       <c r="B528" t="s">
-        <v>1204</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>1121</v>
+        <v>1038</v>
       </c>
       <c r="B529" t="s">
-        <v>1205</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>1122</v>
+        <v>1039</v>
       </c>
       <c r="B530" t="s">
-        <v>1206</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1123</v>
+        <v>1040</v>
       </c>
       <c r="B531" t="s">
-        <v>1207</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1124</v>
+        <v>1041</v>
       </c>
       <c r="B532" t="s">
-        <v>1208</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1125</v>
+        <v>1042</v>
       </c>
       <c r="B533" t="s">
-        <v>1209</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1126</v>
+        <v>1043</v>
       </c>
       <c r="B534" t="s">
-        <v>1210</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1127</v>
+        <v>1044</v>
       </c>
       <c r="B535" t="s">
-        <v>1211</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>1128</v>
+        <v>1045</v>
       </c>
       <c r="B536" t="s">
-        <v>1212</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1129</v>
+        <v>1046</v>
       </c>
       <c r="B537" t="s">
-        <v>1213</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>1130</v>
+        <v>1047</v>
       </c>
       <c r="B538" t="s">
-        <v>1214</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>1131</v>
+        <v>1048</v>
       </c>
       <c r="B539" t="s">
-        <v>1215</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>1132</v>
+        <v>1049</v>
       </c>
       <c r="B540" t="s">
-        <v>1216</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>1133</v>
+        <v>1050</v>
       </c>
       <c r="B541" t="s">
-        <v>1217</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>1134</v>
+        <v>1051</v>
       </c>
       <c r="B542" t="s">
-        <v>1218</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>1135</v>
+        <v>1052</v>
       </c>
       <c r="B543" t="s">
-        <v>1219</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>1136</v>
+        <v>1053</v>
       </c>
       <c r="B544" t="s">
-        <v>1220</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>1137</v>
+        <v>1054</v>
       </c>
       <c r="B545" t="s">
-        <v>1221</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>1138</v>
+        <v>1055</v>
       </c>
       <c r="B546" t="s">
-        <v>1222</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>1139</v>
+        <v>1056</v>
       </c>
       <c r="B547" t="s">
-        <v>1223</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>1140</v>
+        <v>1057</v>
       </c>
       <c r="B548" t="s">
-        <v>1224</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>1141</v>
+        <v>1058</v>
       </c>
       <c r="B549" t="s">
-        <v>1225</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>1142</v>
+        <v>1059</v>
       </c>
       <c r="B550" t="s">
-        <v>1226</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>1143</v>
+        <v>1060</v>
       </c>
       <c r="B551" t="s">
-        <v>1227</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>1144</v>
+        <v>1061</v>
       </c>
       <c r="B552" t="s">
-        <v>1228</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>1145</v>
+        <v>1062</v>
       </c>
       <c r="B553" t="s">
-        <v>1229</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>1146</v>
+        <v>1063</v>
       </c>
       <c r="B554" t="s">
-        <v>1230</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>1147</v>
+        <v>1064</v>
       </c>
       <c r="B555" t="s">
-        <v>1231</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>1148</v>
+        <v>1065</v>
       </c>
       <c r="B556" t="s">
-        <v>1232</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>1149</v>
+        <v>1066</v>
       </c>
       <c r="B557" t="s">
-        <v>1233</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>1150</v>
+        <v>1067</v>
       </c>
       <c r="B558" t="s">
-        <v>1234</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>1151</v>
+        <v>1068</v>
       </c>
       <c r="B559" t="s">
-        <v>1235</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>1152</v>
+        <v>1069</v>
       </c>
       <c r="B560" t="s">
-        <v>1236</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1153</v>
+        <v>1070</v>
       </c>
       <c r="B561" t="s">
-        <v>1237</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1154</v>
+        <v>1071</v>
       </c>
       <c r="B562" t="s">
-        <v>1238</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1155</v>
+        <v>1072</v>
       </c>
       <c r="B563" t="s">
-        <v>1239</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1156</v>
+        <v>1073</v>
       </c>
       <c r="B564" t="s">
-        <v>1240</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1157</v>
+        <v>1074</v>
       </c>
       <c r="B565" t="s">
-        <v>1241</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1158</v>
+        <v>1075</v>
       </c>
       <c r="B566" t="s">
-        <v>1242</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>1159</v>
+        <v>1076</v>
       </c>
       <c r="B567" t="s">
-        <v>1243</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>1160</v>
+        <v>1077</v>
       </c>
       <c r="B568" t="s">
-        <v>1244</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1161</v>
+        <v>1078</v>
       </c>
       <c r="B569" t="s">
-        <v>1245</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1162</v>
+        <v>1079</v>
       </c>
       <c r="B570" t="s">
-        <v>1246</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1163</v>
+        <v>1080</v>
       </c>
       <c r="B571" t="s">
-        <v>1247</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1164</v>
+        <v>1081</v>
       </c>
       <c r="B572" t="s">
-        <v>1248</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1165</v>
+        <v>1082</v>
       </c>
       <c r="B573" t="s">
-        <v>1249</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1166</v>
+        <v>1083</v>
       </c>
       <c r="B574" t="s">
-        <v>1250</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1167</v>
+        <v>1084</v>
       </c>
       <c r="B575" t="s">
-        <v>1251</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1168</v>
+        <v>1085</v>
       </c>
       <c r="B576" t="s">
-        <v>1252</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1169</v>
+        <v>1086</v>
       </c>
       <c r="B577" t="s">
-        <v>1253</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1170</v>
+        <v>1087</v>
       </c>
       <c r="B578" t="s">
-        <v>1254</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1171</v>
+        <v>1088</v>
       </c>
       <c r="B579" t="s">
-        <v>1255</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1172</v>
+        <v>1089</v>
       </c>
       <c r="B580" t="s">
-        <v>1256</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>1173</v>
+        <v>1090</v>
       </c>
       <c r="B581" t="s">
-        <v>1257</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1174</v>
+        <v>1091</v>
       </c>
       <c r="B582" t="s">
-        <v>1258</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1175</v>
+        <v>1092</v>
       </c>
       <c r="B583" t="s">
-        <v>1259</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1176</v>
+        <v>1093</v>
       </c>
       <c r="B584" t="s">
-        <v>1260</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1177</v>
+        <v>1094</v>
       </c>
       <c r="B585" t="s">
-        <v>1261</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1178</v>
+        <v>1095</v>
       </c>
       <c r="B586" t="s">
-        <v>1262</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1179</v>
+        <v>1096</v>
       </c>
       <c r="B587" t="s">
-        <v>1263</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>1180</v>
+        <v>1097</v>
       </c>
       <c r="B588" t="s">
-        <v>1264</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1181</v>
+        <v>1098</v>
       </c>
       <c r="B589" t="s">
-        <v>1265</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1182</v>
+        <v>1099</v>
       </c>
       <c r="B590" t="s">
-        <v>1266</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>1183</v>
+        <v>1100</v>
       </c>
       <c r="B591" t="s">
-        <v>1267</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1184</v>
+        <v>1101</v>
       </c>
       <c r="B592" t="s">
-        <v>1268</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1185</v>
+        <v>1102</v>
       </c>
       <c r="B593" t="s">
-        <v>1269</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1186</v>
+        <v>1103</v>
       </c>
       <c r="B594" t="s">
-        <v>1270</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1333</v>
+        <v>1188</v>
       </c>
       <c r="B595" t="s">
-        <v>1392</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>1334</v>
+        <v>1189</v>
       </c>
       <c r="B596" t="s">
-        <v>1393</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>1335</v>
+        <v>1190</v>
       </c>
       <c r="B597" t="s">
-        <v>1394</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1336</v>
+        <v>1191</v>
       </c>
       <c r="B598" t="s">
-        <v>1395</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>1337</v>
+        <v>1192</v>
       </c>
       <c r="B599" t="s">
-        <v>1396</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1338</v>
+        <v>1193</v>
       </c>
       <c r="B600" t="s">
-        <v>1397</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>1339</v>
+        <v>1194</v>
       </c>
       <c r="B601" t="s">
-        <v>1398</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1340</v>
+        <v>1195</v>
       </c>
       <c r="B602" t="s">
-        <v>1399</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>1341</v>
+        <v>1196</v>
       </c>
       <c r="B603" t="s">
-        <v>1400</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>1342</v>
+        <v>1197</v>
       </c>
       <c r="B604" t="s">
-        <v>1401</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>1343</v>
+        <v>1198</v>
       </c>
       <c r="B605" t="s">
-        <v>1402</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>1344</v>
+        <v>1199</v>
       </c>
       <c r="B606" t="s">
-        <v>1403</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>1345</v>
+        <v>1200</v>
       </c>
       <c r="B607" t="s">
-        <v>1404</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>1346</v>
+        <v>1201</v>
       </c>
       <c r="B608" t="s">
-        <v>1405</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>1347</v>
+        <v>1202</v>
       </c>
       <c r="B609" t="s">
-        <v>1406</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>1348</v>
+        <v>1203</v>
       </c>
       <c r="B610" t="s">
-        <v>1407</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>1349</v>
+        <v>1204</v>
       </c>
       <c r="B611" t="s">
-        <v>1408</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>1350</v>
+        <v>1205</v>
       </c>
       <c r="B612" t="s">
-        <v>1409</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1351</v>
+        <v>1206</v>
       </c>
       <c r="B613" t="s">
-        <v>1410</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>1352</v>
+        <v>1207</v>
       </c>
       <c r="B614" t="s">
-        <v>1411</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>1353</v>
+        <v>1208</v>
       </c>
       <c r="B615" t="s">
-        <v>1412</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>1354</v>
+        <v>1209</v>
       </c>
       <c r="B616" t="s">
-        <v>1413</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>1355</v>
+        <v>1210</v>
       </c>
       <c r="B617" t="s">
-        <v>1414</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>1356</v>
+        <v>1211</v>
       </c>
       <c r="B618" t="s">
-        <v>1415</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>1357</v>
+        <v>1212</v>
       </c>
       <c r="B619" t="s">
-        <v>1416</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>1358</v>
+        <v>1213</v>
       </c>
       <c r="B620" t="s">
-        <v>1417</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>1359</v>
+        <v>1214</v>
       </c>
       <c r="B621" t="s">
-        <v>1418</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>1360</v>
+        <v>1215</v>
       </c>
       <c r="B622" t="s">
-        <v>1419</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>1361</v>
+        <v>1216</v>
       </c>
       <c r="B623" t="s">
-        <v>1420</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>1362</v>
+        <v>1217</v>
       </c>
       <c r="B624" t="s">
-        <v>1421</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>1363</v>
+        <v>1218</v>
       </c>
       <c r="B625" t="s">
-        <v>1422</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>1364</v>
+        <v>1219</v>
       </c>
       <c r="B626" t="s">
-        <v>1423</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>1365</v>
+        <v>1220</v>
       </c>
       <c r="B627" t="s">
-        <v>1424</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>1366</v>
+        <v>1221</v>
       </c>
       <c r="B628" t="s">
-        <v>1425</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>1367</v>
+        <v>1222</v>
       </c>
       <c r="B629" t="s">
-        <v>1426</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>1368</v>
+        <v>1223</v>
       </c>
       <c r="B630" t="s">
-        <v>1427</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>1369</v>
+        <v>1224</v>
       </c>
       <c r="B631" t="s">
-        <v>1428</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>1370</v>
+        <v>1225</v>
       </c>
       <c r="B632" t="s">
-        <v>1429</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1371</v>
+        <v>1226</v>
       </c>
       <c r="B633" t="s">
-        <v>1430</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>1372</v>
+        <v>1227</v>
       </c>
       <c r="B634" t="s">
-        <v>1431</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>1373</v>
+        <v>1228</v>
       </c>
       <c r="B635" t="s">
-        <v>1432</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>1374</v>
+        <v>1229</v>
       </c>
       <c r="B636" t="s">
-        <v>1433</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1375</v>
+        <v>1230</v>
       </c>
       <c r="B637" t="s">
-        <v>1434</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>1376</v>
+        <v>1231</v>
       </c>
       <c r="B638" t="s">
-        <v>1435</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1377</v>
+        <v>1232</v>
       </c>
       <c r="B639" t="s">
-        <v>1436</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>1378</v>
+        <v>1233</v>
       </c>
       <c r="B640" t="s">
-        <v>1437</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1379</v>
+        <v>1234</v>
       </c>
       <c r="B641" t="s">
-        <v>1438</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>1380</v>
+        <v>1235</v>
       </c>
       <c r="B642" t="s">
-        <v>1439</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1381</v>
+        <v>1236</v>
       </c>
       <c r="B643" t="s">
-        <v>1440</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1382</v>
+        <v>1237</v>
       </c>
       <c r="B644" t="s">
-        <v>1441</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>1383</v>
+        <v>1238</v>
       </c>
       <c r="B645" t="s">
-        <v>1442</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
@@ -17205,7 +17010,7 @@
         <v>378</v>
       </c>
       <c r="B646" t="s">
-        <v>1443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -17213,7 +17018,7 @@
         <v>380</v>
       </c>
       <c r="B647" t="s">
-        <v>1444</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
@@ -17221,71 +17026,167 @@
         <v>382</v>
       </c>
       <c r="B648" t="s">
-        <v>1445</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1384</v>
+        <v>1239</v>
       </c>
       <c r="B649" t="s">
-        <v>1446</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1385</v>
+        <v>1240</v>
       </c>
       <c r="B650" t="s">
-        <v>1447</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1386</v>
+        <v>1241</v>
       </c>
       <c r="B651" t="s">
-        <v>1448</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>1387</v>
+        <v>1242</v>
       </c>
       <c r="B652" t="s">
-        <v>1449</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1388</v>
+        <v>1243</v>
       </c>
       <c r="B653" t="s">
-        <v>1450</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1389</v>
+        <v>1244</v>
       </c>
       <c r="B654" t="s">
-        <v>1451</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1390</v>
+        <v>1245</v>
       </c>
       <c r="B655" t="s">
-        <v>1452</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>1391</v>
+        <v>1246</v>
       </c>
       <c r="B656" t="s">
-        <v>1453</v>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1344</v>
       </c>
     </row>
   </sheetData>
@@ -17298,8 +17199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7AAB77-4722-4270-81B5-9318EDC34D9C}">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85:N146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17310,1416 +17211,1203 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1020</v>
+        <v>1309</v>
       </c>
       <c r="L1" t="str">
         <f>"../"&amp;SUBSTITUTE(RIGHT(A1,LEN(A1)-FIND("Bin",A1)+1),"\","/")</f>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AdvanceUp.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_BG_Shadercompile.dds</v>
       </c>
       <c r="M1" t="str">
         <f>RIGHT(L1,LEN(L1)-FIND("UI",L1)-2)</f>
-        <v>UIT_AB_Amulet_AdvanceUp.dds</v>
+        <v>UIT_BG_Shadercompile.dds</v>
       </c>
       <c r="N1" t="str">
         <f>"Prototype_Texture_UI_"&amp;LEFT(M1,LEN(M1)-4)</f>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AdvanceUp</v>
+        <v>Prototype_Texture_UI_UIT_BG_Shadercompile</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1021</v>
+        <v>1310</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L30" si="0">"../"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AllGaugeMaxUp.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Img_Loading_10.dds</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
-        <v>UIT_AB_Amulet_AllGaugeMaxUp.dds</v>
+        <v>UIT_Img_Loading_10.dds</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N65" si="2">"Prototype_Texture_UI_"&amp;LEFT(M2,LEN(M2)-4)</f>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AllGaugeMaxUp</v>
+        <v>Prototype_Texture_UI_UIT_Img_Loading_10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1022</v>
+        <v>1311</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AtkCarDmgUp.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_DeskBg.dds</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_AtkCarDmgUp.dds</v>
+        <v>UIT_Loading_DeskBg.dds</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AtkCarDmgUp</v>
+        <v>Prototype_Texture_UI_UIT_Loading_DeskBg</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1023</v>
+        <v>1312</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AtkHumDmgUp.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_0.dds</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_AtkHumDmgUp.dds</v>
+        <v>UIT_Loading_Object_0.dds</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AtkHumDmgUp</v>
+        <v>Prototype_Texture_UI_UIT_Loading_Object_0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1024</v>
+        <v>1313</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AtkPupDmgUp.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_1.dds</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_AtkPupDmgUp.dds</v>
+        <v>UIT_Loading_Object_1.dds</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AtkPupDmgUp</v>
+        <v>Prototype_Texture_UI_UIT_Loading_Object_1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1025</v>
+        <v>1314</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AtkSpeedUpStack1.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_2.dds</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_AtkSpeedUpStack1.dds</v>
+        <v>UIT_Loading_Object_2.dds</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AtkSpeedUpStack1</v>
+        <v>Prototype_Texture_UI_UIT_Loading_Object_2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1026</v>
+        <v>1315</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AtkSpeedUpStack2.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_3.dds</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_AtkSpeedUpStack2.dds</v>
+        <v>UIT_Loading_Object_3.dds</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AtkSpeedUpStack2</v>
+        <v>Prototype_Texture_UI_UIT_Loading_Object_3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1027</v>
+        <v>1316</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AtkSpeedUpStack3.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_4.dds</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_AtkSpeedUpStack3.dds</v>
+        <v>UIT_Loading_Object_4.dds</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AtkSpeedUpStack3</v>
+        <v>Prototype_Texture_UI_UIT_Loading_Object_4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1028</v>
+        <v>1317</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_AtkSpeedUpStack4.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_5.dds</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_AtkSpeedUpStack4.dds</v>
+        <v>UIT_Loading_Object_5.dds</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_AtkSpeedUpStack4</v>
+        <v>Prototype_Texture_UI_UIT_Loading_Object_5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1029</v>
+        <v>1318</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss1.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_Paper_0.dds</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss1.dds</v>
+        <v>UIT_Loading_Paper_0.dds</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss1</v>
+        <v>Prototype_Texture_UI_UIT_Loading_Paper_0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1030</v>
+        <v>1319</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss2.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_PhotoBg.dds</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss2.dds</v>
+        <v>UIT_Loading_PhotoBg.dds</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss2</v>
+        <v>Prototype_Texture_UI_UIT_Loading_PhotoBg</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1031</v>
+        <v>1320</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss3.dds</v>
+        <v>../Bin/Resources/Textures/UI/UIT_Loading_TipBg.dds</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss3.dds</v>
+        <v>UIT_Loading_TipBg.dds</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss3</v>
+        <v>Prototype_Texture_UI_UIT_Loading_TipBg</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="L13" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss3AtkOnceUp.dds</v>
-      </c>
-      <c r="M13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss3AtkOnceUp.dds</v>
-      </c>
-      <c r="N13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N13" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss3AtkOnceUp</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="L14" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss4.dds</v>
-      </c>
-      <c r="M14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss4.dds</v>
-      </c>
-      <c r="N14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N14" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss4</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="L15" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss5.dds</v>
-      </c>
-      <c r="M15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss5.dds</v>
-      </c>
-      <c r="N15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N15" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss5</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L16" t="str">
+      <c r="L16" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss6.dds</v>
-      </c>
-      <c r="M16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss6.dds</v>
-      </c>
-      <c r="N16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N16" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L17" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L17" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss6Stack1.dds</v>
-      </c>
-      <c r="M17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss6Stack1.dds</v>
-      </c>
-      <c r="N17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N17" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss6Stack1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L18" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L18" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss6Stack2.dds</v>
-      </c>
-      <c r="M18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss6Stack2.dds</v>
-      </c>
-      <c r="N18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N18" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss6Stack2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L19" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L19" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss6Stack3.dds</v>
-      </c>
-      <c r="M19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss6Stack3.dds</v>
-      </c>
-      <c r="N19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss6Stack3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L20" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L20" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss6Stack4.dds</v>
-      </c>
-      <c r="M20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss6Stack4.dds</v>
-      </c>
-      <c r="N20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N20" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss6Stack4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L21" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L21" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss7.dds</v>
-      </c>
-      <c r="M21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss7.dds</v>
-      </c>
-      <c r="N21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N21" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L22" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L22" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss8.dds</v>
-      </c>
-      <c r="M22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss8.dds</v>
-      </c>
-      <c r="N22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N22" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L23" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L23" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss9.dds</v>
-      </c>
-      <c r="M23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss9.dds</v>
-      </c>
-      <c r="N23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L24" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L24" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Boss10.dds</v>
-      </c>
-      <c r="M24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Boss10.dds</v>
-      </c>
-      <c r="N24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Boss10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L25" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L25" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Cat.dds</v>
-      </c>
-      <c r="M25" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_Cat.dds</v>
-      </c>
-      <c r="N25" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N25" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Cat</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L26" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L26" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_CriAtkUp.dds</v>
-      </c>
-      <c r="M26" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_CriAtkUp.dds</v>
-      </c>
-      <c r="N26" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_CriAtkUp</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1046</v>
-      </c>
-      <c r="L27" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L27" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_DefUp.dds</v>
-      </c>
-      <c r="M27" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_DefUp.dds</v>
-      </c>
-      <c r="N27" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_DefUp</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="L28" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L28" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_ElecAtkUpStack1.dds</v>
-      </c>
-      <c r="M28" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_ElecAtkUpStack1.dds</v>
-      </c>
-      <c r="N28" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_ElecAtkUpStack1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1048</v>
-      </c>
-      <c r="L29" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L29" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_ElecAtkUpStack2.dds</v>
-      </c>
-      <c r="M29" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_ElecAtkUpStack2.dds</v>
-      </c>
-      <c r="N29" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_ElecAtkUpStack2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1049</v>
-      </c>
-      <c r="L30" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L30" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_ElecAtkUpStack3.dds</v>
-      </c>
-      <c r="M30" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_AB_Amulet_ElecAtkUpStack3.dds</v>
-      </c>
-      <c r="N30" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_ElecAtkUpStack3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L31" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L31" t="e">
         <f t="shared" ref="L31:L84" si="3">"../"&amp;SUBSTITUTE(RIGHT(A31,LEN(A31)-FIND("Bin",A31)+1),"\","/")</f>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_ElecAtkUpStack4.dds</v>
-      </c>
-      <c r="M31" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" t="e">
         <f t="shared" ref="M31:M84" si="4">RIGHT(L31,LEN(L31)-FIND("UI",L31)-2)</f>
-        <v>UIT_AB_Amulet_ElecAtkUpStack4.dds</v>
-      </c>
-      <c r="N31" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_ElecAtkUpStack4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L32" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L32" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_ErgoGainUp.dds</v>
-      </c>
-      <c r="M32" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_ErgoGainUp.dds</v>
-      </c>
-      <c r="N32" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_ErgoGainUp</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L33" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L33" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_Fox.dds</v>
-      </c>
-      <c r="M33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_Fox.dds</v>
-      </c>
-      <c r="N33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_Fox</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L34" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L34" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_HealthMaxUp.dds</v>
-      </c>
-      <c r="M34" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_HealthMaxUp.dds</v>
-      </c>
-      <c r="N34" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N34" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_HealthMaxUp</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1054</v>
-      </c>
-      <c r="L35" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L35" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_HpAutoRecovery.dds</v>
-      </c>
-      <c r="M35" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M35" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_HpAutoRecovery.dds</v>
-      </c>
-      <c r="N35" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N35" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_HpAutoRecovery</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L36" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L36" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_MotivityUp.dds</v>
-      </c>
-      <c r="M36" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_MotivityUp.dds</v>
-      </c>
-      <c r="N36" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_MotivityUp</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L37" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L37" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_RegionMaxUp.dds</v>
-      </c>
-      <c r="M37" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M37" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_RegionMaxUp.dds</v>
-      </c>
-      <c r="N37" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N37" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_RegionMaxUp</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L38" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L38" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_ResistUp2.dds</v>
-      </c>
-      <c r="M38" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_ResistUp2.dds</v>
-      </c>
-      <c r="N38" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N38" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_ResistUp2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L39" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L39" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_StaminaMaxUp.dds</v>
-      </c>
-      <c r="M39" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_StaminaMaxUp.dds</v>
-      </c>
-      <c r="N39" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N39" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_StaminaMaxUp</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L40" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L40" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_StaminaRecoveryUp.dds</v>
-      </c>
-      <c r="M40" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M40" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_StaminaRecoveryUp.dds</v>
-      </c>
-      <c r="N40" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N40" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_StaminaRecoveryUp</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L41" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L41" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_TechniqueUp.dds</v>
-      </c>
-      <c r="M41" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M41" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_TechniqueUp.dds</v>
-      </c>
-      <c r="N41" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N41" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_TechniqueUp</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L42" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L42" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_WeightLimitUp.dds</v>
-      </c>
-      <c r="M42" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M42" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_WeightLimitUp.dds</v>
-      </c>
-      <c r="N42" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N42" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_WeightLimitUp</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L43" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L43" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Amulet_WSCostDown.dds</v>
-      </c>
-      <c r="M43" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M43" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Amulet_WSCostDown.dds</v>
-      </c>
-      <c r="N43" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N43" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Amulet_WSCostDown</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L44" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L44" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_AcidAtkUp_1.dds</v>
-      </c>
-      <c r="M44" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_AcidAtkUp_1.dds</v>
-      </c>
-      <c r="N44" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N44" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_AcidAtkUp_1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L45" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L45" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_AcidAtkUp_2.dds</v>
-      </c>
-      <c r="M45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_AcidAtkUp_2.dds</v>
-      </c>
-      <c r="N45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N45" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_AcidAtkUp_2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L46" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L46" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_CatDust.dds</v>
-      </c>
-      <c r="M46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_CatDust.dds</v>
-      </c>
-      <c r="N46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N46" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_CatDust</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>1066</v>
-      </c>
-      <c r="L47" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L47" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_CriRateUp.dds</v>
-      </c>
-      <c r="M47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_CriRateUp.dds</v>
-      </c>
-      <c r="N47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N47" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_CriRateUp</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L48" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L48" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_DestructionUp.dds</v>
-      </c>
-      <c r="M48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_DestructionUp.dds</v>
-      </c>
-      <c r="N48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N48" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_DestructionUp</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>1068</v>
-      </c>
-      <c r="L49" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L49" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_DmgTakeDown.dds</v>
-      </c>
-      <c r="M49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M49" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_DmgTakeDown.dds</v>
-      </c>
-      <c r="N49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N49" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_DmgTakeDown</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L50" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L50" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_ElecAtkUp_1.dds</v>
-      </c>
-      <c r="M50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M50" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_ElecAtkUp_1.dds</v>
-      </c>
-      <c r="N50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N50" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_ElecAtkUp_1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1070</v>
-      </c>
-      <c r="L51" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L51" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_ElecAtkUp_2.dds</v>
-      </c>
-      <c r="M51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_ElecAtkUp_2.dds</v>
-      </c>
-      <c r="N51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N51" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_ElecAtkUp_2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>1071</v>
-      </c>
-      <c r="L52" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L52" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_FableChargeUp.dds</v>
-      </c>
-      <c r="M52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_FableChargeUp.dds</v>
-      </c>
-      <c r="N52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N52" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_FableChargeUp</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>1072</v>
-      </c>
-      <c r="L53" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L53" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_FireAtkUp_1.dds</v>
-      </c>
-      <c r="M53" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M53" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_FireAtkUp_1.dds</v>
-      </c>
-      <c r="N53" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N53" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_FireAtkUp_1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>1073</v>
-      </c>
-      <c r="L54" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L54" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_FireAtkUp_2.dds</v>
-      </c>
-      <c r="M54" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M54" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_FireAtkUp_2.dds</v>
-      </c>
-      <c r="N54" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N54" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_FireAtkUp_2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>1074</v>
-      </c>
-      <c r="L55" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L55" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_GuardBoost.dds</v>
-      </c>
-      <c r="M55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M55" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_GuardBoost.dds</v>
-      </c>
-      <c r="N55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N55" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_GuardBoost</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>1075</v>
-      </c>
-      <c r="L56" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L56" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_HealHealth.dds</v>
-      </c>
-      <c r="M56" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M56" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_HealHealth.dds</v>
-      </c>
-      <c r="N56" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N56" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_HealHealth</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1076</v>
-      </c>
-      <c r="L57" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L57" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_HealRegion.dds</v>
-      </c>
-      <c r="M57" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M57" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_HealRegion.dds</v>
-      </c>
-      <c r="N57" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N57" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_HealRegion</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>1077</v>
-      </c>
-      <c r="L58" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L58" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_Helper_Explosion.dds</v>
-      </c>
-      <c r="M58" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M58" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_Helper_Explosion.dds</v>
-      </c>
-      <c r="N58" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N58" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_Helper_Explosion</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>1078</v>
-      </c>
-      <c r="L59" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L59" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_HelperAcidAtk.dds</v>
-      </c>
-      <c r="M59" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M59" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_HelperAcidAtk.dds</v>
-      </c>
-      <c r="N59" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N59" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_HelperAcidAtk</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>1079</v>
-      </c>
-      <c r="L60" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L60" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_HelperDestructionUp.dds</v>
-      </c>
-      <c r="M60" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_HelperDestructionUp.dds</v>
-      </c>
-      <c r="N60" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N60" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_HelperDestructionUp</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>1080</v>
-      </c>
-      <c r="L61" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L61" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_HelperElecAtk.dds</v>
-      </c>
-      <c r="M61" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M61" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_HelperElecAtk.dds</v>
-      </c>
-      <c r="N61" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N61" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_HelperElecAtk</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>1081</v>
-      </c>
-      <c r="L62" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L62" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_HelperFireAtk.dds</v>
-      </c>
-      <c r="M62" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M62" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_HelperFireAtk.dds</v>
-      </c>
-      <c r="N62" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N62" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_HelperFireAtk</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>1082</v>
-      </c>
-      <c r="L63" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L63" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_HelperNoDeathOnce.dds</v>
-      </c>
-      <c r="M63" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M63" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_HelperNoDeathOnce.dds</v>
-      </c>
-      <c r="N63" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N63" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_HelperNoDeathOnce</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>1083</v>
-      </c>
-      <c r="L64" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L64" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_HelperProvoke.dds</v>
-      </c>
-      <c r="M64" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M64" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_HelperProvoke.dds</v>
-      </c>
-      <c r="N64" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N64" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_HelperProvoke</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>1084</v>
-      </c>
-      <c r="L65" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L65" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_NoDeathErgoDrop.dds</v>
-      </c>
-      <c r="M65" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M65" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_NoDeathErgoDrop.dds</v>
-      </c>
-      <c r="N65" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N65" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_NoDeathErgoDrop</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>1085</v>
-      </c>
-      <c r="L66" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L66" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_NoWSCost.dds</v>
-      </c>
-      <c r="M66" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M66" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_NoWSCost.dds</v>
-      </c>
-      <c r="N66" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N66" t="e">
         <f t="shared" ref="N66:N84" si="5">"Prototype_Texture_UI_"&amp;LEFT(M66,LEN(M66)-4)</f>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_NoWSCost</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>1086</v>
-      </c>
-      <c r="L67" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L67" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_PerfectGuard.dds</v>
-      </c>
-      <c r="M67" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_PerfectGuard.dds</v>
-      </c>
-      <c r="N67" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N67" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_PerfectGuard</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L68" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L68" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_ProtectDeathErgo.dds</v>
-      </c>
-      <c r="M68" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M68" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_ProtectDeathErgo.dds</v>
-      </c>
-      <c r="N68" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N68" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_ProtectDeathErgo</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>1088</v>
-      </c>
-      <c r="L69" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L69" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_ResistUp1.dds</v>
-      </c>
-      <c r="M69" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M69" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_ResistUp1.dds</v>
-      </c>
-      <c r="N69" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N69" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_ResistUp1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>1089</v>
-      </c>
-      <c r="L70" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L70" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_ResistUp2.dds</v>
-      </c>
-      <c r="M70" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M70" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_ResistUp2.dds</v>
-      </c>
-      <c r="N70" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N70" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_ResistUp2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>1090</v>
-      </c>
-      <c r="L71" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L71" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_StaminaMaxUp.dds</v>
-      </c>
-      <c r="M71" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M71" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_StaminaMaxUp.dds</v>
-      </c>
-      <c r="N71" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N71" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_StaminaMaxUp</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>1091</v>
-      </c>
-      <c r="L72" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L72" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_StaminaRecoveryUp.dds</v>
-      </c>
-      <c r="M72" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M72" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_StaminaRecoveryUp.dds</v>
-      </c>
-      <c r="N72" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N72" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_StaminaRecoveryUp</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>1092</v>
-      </c>
-      <c r="L73" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L73" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Consume_WishStone_Friend.dds</v>
-      </c>
-      <c r="M73" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M73" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Consume_WishStone_Friend.dds</v>
-      </c>
-      <c r="N73" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N73" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Consume_WishStone_Friend</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>1093</v>
-      </c>
-      <c r="L74" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L74" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_AcidAtkUp.dds</v>
-      </c>
-      <c r="M74" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M74" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_AcidAtkUp.dds</v>
-      </c>
-      <c r="N74" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N74" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_AcidAtkUp</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>1094</v>
-      </c>
-      <c r="L75" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L75" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_AtkOnceUp.dds</v>
-      </c>
-      <c r="M75" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M75" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_AtkOnceUp.dds</v>
-      </c>
-      <c r="N75" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N75" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_AtkOnceUp</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L76" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L76" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_AtkRangeUp.dds</v>
-      </c>
-      <c r="M76" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M76" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_AtkRangeUp.dds</v>
-      </c>
-      <c r="N76" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N76" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_AtkRangeUp</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>1096</v>
-      </c>
-      <c r="L77" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L77" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_AtkSpeedUp.dds</v>
-      </c>
-      <c r="M77" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M77" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_AtkSpeedUp.dds</v>
-      </c>
-      <c r="N77" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N77" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_AtkSpeedUp</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>1097</v>
-      </c>
-      <c r="L78" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L78" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_AtkUp.dds</v>
-      </c>
-      <c r="M78" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M78" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_AtkUp.dds</v>
-      </c>
-      <c r="N78" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N78" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_AtkUp</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>1098</v>
-      </c>
-      <c r="L79" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L79" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_CriRateUp.dds</v>
-      </c>
-      <c r="M79" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M79" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_CriRateUp.dds</v>
-      </c>
-      <c r="N79" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N79" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_CriRateUp</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>1099</v>
-      </c>
-      <c r="L80" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L80" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_ElecAtkUp.dds</v>
-      </c>
-      <c r="M80" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M80" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_ElecAtkUp.dds</v>
-      </c>
-      <c r="N80" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N80" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_ElecAtkUp</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>1100</v>
-      </c>
-      <c r="L81" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L81" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_Endure.dds</v>
-      </c>
-      <c r="M81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M81" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_Endure.dds</v>
-      </c>
-      <c r="N81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N81" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_Endure</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L82" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L82" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_FireAtkUp.dds</v>
-      </c>
-      <c r="M82" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M82" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_FireAtkUp.dds</v>
-      </c>
-      <c r="N82" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N82" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_FireAtkUp</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>1102</v>
-      </c>
-      <c r="L83" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L83" t="e">
         <f t="shared" si="3"/>
-        <v>../Bin/Resources/Textures/UI/UIT_AB_Fable_MultiHit.dds</v>
-      </c>
-      <c r="M83" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M83" t="e">
         <f t="shared" si="4"/>
-        <v>UIT_AB_Fable_MultiHit.dds</v>
-      </c>
-      <c r="N83" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N83" t="e">
         <f t="shared" si="5"/>
-        <v>Prototype_Texture_UI_UIT_AB_Fable_MultiHit</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L84" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
@@ -18733,1058 +18421,872 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L85" t="str">
+    <row r="85" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L85" t="e">
         <f t="shared" ref="L85:L146" si="6">"../"&amp;SUBSTITUTE(RIGHT(A85,LEN(A85)-FIND("Bin",A85)+1),"\","/")</f>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Acid_Defense_P.dds</v>
-      </c>
-      <c r="M85" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M85" t="e">
         <f t="shared" ref="M85:M146" si="7">RIGHT(L85,LEN(L85)-FIND("UI",L85)-2)</f>
-        <v>UIT_Icon_Buff_Acid_Defense_P.dds</v>
-      </c>
-      <c r="N85" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N85" t="e">
         <f t="shared" ref="N85:N146" si="8">"Prototype_Texture_UI_"&amp;LEFT(M85,LEN(M85)-4)</f>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Acid_Defense_P</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>1272</v>
-      </c>
-      <c r="L86" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L86" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Acid_Resistance_A.dds</v>
-      </c>
-      <c r="M86" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M86" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Acid_Resistance_A.dds</v>
-      </c>
-      <c r="N86" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N86" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Acid_Resistance_A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>1273</v>
-      </c>
-      <c r="L87" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L87" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Acid_Resistance_P.dds</v>
-      </c>
-      <c r="M87" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M87" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Acid_Resistance_P.dds</v>
-      </c>
-      <c r="N87" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N87" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Acid_Resistance_P</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>1274</v>
-      </c>
-      <c r="L88" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L88" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Advance_P.dds</v>
-      </c>
-      <c r="M88" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M88" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Advance_P.dds</v>
-      </c>
-      <c r="N88" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N88" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Advance_P</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L89" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L89" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Ample_Acid.dds</v>
-      </c>
-      <c r="M89" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M89" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Ample_Acid.dds</v>
-      </c>
-      <c r="N89" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N89" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Ample_Acid</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L90" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L90" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Ample_Contamination.dds</v>
-      </c>
-      <c r="M90" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M90" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Ample_Contamination.dds</v>
-      </c>
-      <c r="N90" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N90" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Ample_Contamination</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>1277</v>
-      </c>
-      <c r="L91" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L91" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Ample_Electric.dds</v>
-      </c>
-      <c r="M91" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M91" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Ample_Electric.dds</v>
-      </c>
-      <c r="N91" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N91" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Ample_Electric</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>1278</v>
-      </c>
-      <c r="L92" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L92" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Ample_Fire.dds</v>
-      </c>
-      <c r="M92" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M92" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Ample_Fire.dds</v>
-      </c>
-      <c r="N92" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N92" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Ample_Fire</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L93" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L93" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_ArmsDamage_Increase_P.dds</v>
-      </c>
-      <c r="M93" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M93" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_ArmsDamage_Increase_P.dds</v>
-      </c>
-      <c r="N93" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N93" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_ArmsDamage_Increase_P</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>1280</v>
-      </c>
-      <c r="L94" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L94" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_ArmsGage_Increase_P.dds</v>
-      </c>
-      <c r="M94" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M94" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_ArmsGage_Increase_P.dds</v>
-      </c>
-      <c r="N94" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N94" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_ArmsGage_Increase_P</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>1281</v>
-      </c>
-      <c r="L95" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L95" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Capacity_P.dds</v>
-      </c>
-      <c r="M95" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M95" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Capacity_P.dds</v>
-      </c>
-      <c r="N95" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N95" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Capacity_P</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>1282</v>
-      </c>
-      <c r="L96" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L96" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Cartridge_Stamina.dds</v>
-      </c>
-      <c r="M96" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M96" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Cartridge_Stamina.dds</v>
-      </c>
-      <c r="N96" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N96" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Cartridge_Stamina</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L97" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L97" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_ChargeAttack_P.dds</v>
-      </c>
-      <c r="M97" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M97" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_ChargeAttack_P.dds</v>
-      </c>
-      <c r="N97" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N97" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_ChargeAttack_P</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>1284</v>
-      </c>
-      <c r="L98" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L98" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_ChargedGear_P.dds</v>
-      </c>
-      <c r="M98" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M98" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_ChargedGear_P.dds</v>
-      </c>
-      <c r="N98" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N98" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_ChargedGear_P</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>1285</v>
-      </c>
-      <c r="L99" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L99" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_ChargeGear_P.dds</v>
-      </c>
-      <c r="M99" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M99" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_ChargeGear_P.dds</v>
-      </c>
-      <c r="N99" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N99" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_ChargeGear_P</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>1286</v>
-      </c>
-      <c r="L100" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L100" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Collapsed_Resistance_A.dds</v>
-      </c>
-      <c r="M100" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M100" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Collapsed_Resistance_A.dds</v>
-      </c>
-      <c r="N100" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N100" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Collapsed_Resistance_A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L101" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L101" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Collapsed_Resistance_P.dds</v>
-      </c>
-      <c r="M101" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M101" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Collapsed_Resistance_P.dds</v>
-      </c>
-      <c r="N101" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N101" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Collapsed_Resistance_P</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>1288</v>
-      </c>
-      <c r="L102" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L102" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Contamination_Resistance_A.dds</v>
-      </c>
-      <c r="M102" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M102" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Contamination_Resistance_A.dds</v>
-      </c>
-      <c r="N102" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N102" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Contamination_Resistance_A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>1289</v>
-      </c>
-      <c r="L103" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L103" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Contamination_Resistance_P.dds</v>
-      </c>
-      <c r="M103" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M103" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Contamination_Resistance_P.dds</v>
-      </c>
-      <c r="N103" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N103" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Contamination_Resistance_P</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L104" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L104" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Destroyer_P.dds</v>
-      </c>
-      <c r="M104" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M104" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Destroyer_P.dds</v>
-      </c>
-      <c r="N104" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N104" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Destroyer_P</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>1291</v>
-      </c>
-      <c r="L105" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L105" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Durability_P.dds</v>
-      </c>
-      <c r="M105" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M105" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Durability_P.dds</v>
-      </c>
-      <c r="N105" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N105" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Durability_P</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L106" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L106" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_DustCat.dds</v>
-      </c>
-      <c r="M106" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M106" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_DustCat.dds</v>
-      </c>
-      <c r="N106" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N106" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_DustCat</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>1293</v>
-      </c>
-      <c r="L107" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L107" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_DustCat_A.dds</v>
-      </c>
-      <c r="M107" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M107" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_DustCat_A.dds</v>
-      </c>
-      <c r="N107" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N107" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_DustCat_A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>1294</v>
-      </c>
-      <c r="L108" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L108" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Ergo_Protect.dds</v>
-      </c>
-      <c r="M108" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M108" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Ergo_Protect.dds</v>
-      </c>
-      <c r="N108" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N108" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Ergo_Protect</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L109" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L109" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Ergo_Protect_A.dds</v>
-      </c>
-      <c r="M109" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M109" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Ergo_Protect_A.dds</v>
-      </c>
-      <c r="N109" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N109" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Ergo_Protect_A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>1296</v>
-      </c>
-      <c r="L110" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L110" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_FatalAttack_P.dds</v>
-      </c>
-      <c r="M110" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M110" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_FatalAttack_P.dds</v>
-      </c>
-      <c r="N110" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N110" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_FatalAttack_P</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>1297</v>
-      </c>
-      <c r="L111" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L111" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_FireAttack.dds</v>
-      </c>
-      <c r="M111" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M111" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_FireAttack.dds</v>
-      </c>
-      <c r="N111" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N111" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_FireAttack</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>1298</v>
-      </c>
-      <c r="L112" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L112" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Flame_Defense_P.dds</v>
-      </c>
-      <c r="M112" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M112" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Flame_Defense_P.dds</v>
-      </c>
-      <c r="N112" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N112" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Flame_Defense_P</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>1299</v>
-      </c>
-      <c r="L113" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L113" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Flame_Resistance_A.dds</v>
-      </c>
-      <c r="M113" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M113" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Flame_Resistance_A.dds</v>
-      </c>
-      <c r="N113" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N113" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Flame_Resistance_A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L114" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="114" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L114" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Flame_Resistance_P.dds</v>
-      </c>
-      <c r="M114" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M114" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Flame_Resistance_P.dds</v>
-      </c>
-      <c r="N114" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N114" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Flame_Resistance_P</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>1301</v>
-      </c>
-      <c r="L115" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="115" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L115" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_GetFatal_P.dds</v>
-      </c>
-      <c r="M115" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M115" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_GetFatal_P.dds</v>
-      </c>
-      <c r="N115" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N115" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_GetFatal_P</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>1302</v>
-      </c>
-      <c r="L116" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L116" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_GuardRegain_P.dds</v>
-      </c>
-      <c r="M116" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M116" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_GuardRegain_P.dds</v>
-      </c>
-      <c r="N116" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N116" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_GuardRegain_P</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>1303</v>
-      </c>
-      <c r="L117" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L117" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_GuardStamina_P.dds</v>
-      </c>
-      <c r="M117" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M117" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_GuardStamina_P.dds</v>
-      </c>
-      <c r="N117" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N117" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_GuardStamina_P</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>1304</v>
-      </c>
-      <c r="L118" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L118" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Health_P.dds</v>
-      </c>
-      <c r="M118" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M118" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Health_P.dds</v>
-      </c>
-      <c r="N118" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N118" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Health_P</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>1305</v>
-      </c>
-      <c r="L119" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L119" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_HP_P.dds</v>
-      </c>
-      <c r="M119" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M119" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_HP_P.dds</v>
-      </c>
-      <c r="N119" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N119" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_HP_P</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L120" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="120" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L120" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_HPDotHeal.dds</v>
-      </c>
-      <c r="M120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M120" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_HPDotHeal.dds</v>
-      </c>
-      <c r="N120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N120" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_HPDotHeal</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>1307</v>
-      </c>
-      <c r="L121" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L121" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Lightning_Defense_P.dds</v>
-      </c>
-      <c r="M121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M121" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Lightning_Defense_P.dds</v>
-      </c>
-      <c r="N121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N121" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Lightning_Defense_P</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>1308</v>
-      </c>
-      <c r="L122" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="122" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L122" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Lightning_Resistance_A.dds</v>
-      </c>
-      <c r="M122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M122" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Lightning_Resistance_A.dds</v>
-      </c>
-      <c r="N122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N122" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Lightning_Resistance_A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>1309</v>
-      </c>
-      <c r="L123" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="123" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L123" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Lightning_Resistance_P.dds</v>
-      </c>
-      <c r="M123" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M123" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Lightning_Resistance_P.dds</v>
-      </c>
-      <c r="N123" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N123" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Lightning_Resistance_P</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>1310</v>
-      </c>
-      <c r="L124" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L124" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_ListenerBless_A.dds</v>
-      </c>
-      <c r="M124" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M124" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_ListenerBless_A.dds</v>
-      </c>
-      <c r="N124" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N124" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_ListenerBless_A</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>1311</v>
-      </c>
-      <c r="L125" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="125" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L125" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Motivity_P.dds</v>
-      </c>
-      <c r="M125" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M125" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Motivity_P.dds</v>
-      </c>
-      <c r="N125" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N125" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Motivity_P</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>1312</v>
-      </c>
-      <c r="L126" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L126" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Possession_P.dds</v>
-      </c>
-      <c r="M126" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M126" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Possession_P.dds</v>
-      </c>
-      <c r="N126" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N126" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Possession_P</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>1313</v>
-      </c>
-      <c r="L127" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="127" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L127" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Sofia_P.dds</v>
-      </c>
-      <c r="M127" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M127" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Sofia_P.dds</v>
-      </c>
-      <c r="N127" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N127" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Sofia_P</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>1314</v>
-      </c>
-      <c r="L128" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="128" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L128" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Stamina_A.dds</v>
-      </c>
-      <c r="M128" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M128" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Stamina_A.dds</v>
-      </c>
-      <c r="N128" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N128" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Stamina_A</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>1315</v>
-      </c>
-      <c r="L129" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="129" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L129" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Stamina_P.dds</v>
-      </c>
-      <c r="M129" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M129" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Stamina_P.dds</v>
-      </c>
-      <c r="N129" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N129" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Stamina_P</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L130" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="130" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L130" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Stamina_Speed_P.dds</v>
-      </c>
-      <c r="M130" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M130" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Stamina_Speed_P.dds</v>
-      </c>
-      <c r="N130" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N130" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Stamina_Speed_P</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>1317</v>
-      </c>
-      <c r="L131" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L131" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_StaminaRecover.dds</v>
-      </c>
-      <c r="M131" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M131" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_StaminaRecover.dds</v>
-      </c>
-      <c r="N131" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N131" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_StaminaRecover</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>1318</v>
-      </c>
-      <c r="L132" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="132" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L132" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_SteelShieldGear_P.dds</v>
-      </c>
-      <c r="M132" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M132" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_SteelShieldGear_P.dds</v>
-      </c>
-      <c r="N132" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N132" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_SteelShieldGear_P</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>1319</v>
-      </c>
-      <c r="L133" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="133" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L133" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Tenacity_P.dds</v>
-      </c>
-      <c r="M133" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M133" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Tenacity_P.dds</v>
-      </c>
-      <c r="N133" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N133" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Tenacity_P</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>1320</v>
-      </c>
-      <c r="L134" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="134" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L134" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Vigor_P.dds</v>
-      </c>
-      <c r="M134" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M134" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Vigor_P.dds</v>
-      </c>
-      <c r="N134" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N134" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Vigor_P</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>1321</v>
-      </c>
-      <c r="L135" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="135" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L135" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Buff_Weight_P.dds</v>
-      </c>
-      <c r="M135" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M135" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Buff_Weight_P.dds</v>
-      </c>
-      <c r="N135" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N135" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Buff_Weight_P</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>1322</v>
-      </c>
-      <c r="L136" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="136" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L136" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_CanReinforeced.dds</v>
-      </c>
-      <c r="M136" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M136" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_CanReinforeced.dds</v>
-      </c>
-      <c r="N136" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N136" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_CanReinforeced</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L137" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L137" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Change.dds</v>
-      </c>
-      <c r="M137" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M137" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Change.dds</v>
-      </c>
-      <c r="N137" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N137" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Change</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>1324</v>
-      </c>
-      <c r="L138" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L138" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Cross.dds</v>
-      </c>
-      <c r="M138" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M138" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Cross.dds</v>
-      </c>
-      <c r="N138" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N138" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Cross</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>1325</v>
-      </c>
-      <c r="L139" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L139" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Debuff_Acid.dds</v>
-      </c>
-      <c r="M139" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M139" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Debuff_Acid.dds</v>
-      </c>
-      <c r="N139" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N139" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Debuff_Acid</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L140" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L140" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Debuff_Collapsed.dds</v>
-      </c>
-      <c r="M140" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M140" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Debuff_Collapsed.dds</v>
-      </c>
-      <c r="N140" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N140" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Debuff_Collapsed</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>1327</v>
-      </c>
-      <c r="L141" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L141" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Debuff_Contamination.dds</v>
-      </c>
-      <c r="M141" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M141" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Debuff_Contamination.dds</v>
-      </c>
-      <c r="N141" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N141" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Debuff_Contamination</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>1328</v>
-      </c>
-      <c r="L142" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="142" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L142" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Debuff_Curse.dds</v>
-      </c>
-      <c r="M142" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M142" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Debuff_Curse.dds</v>
-      </c>
-      <c r="N142" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N142" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Debuff_Curse</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>1329</v>
-      </c>
-      <c r="L143" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="143" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L143" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Debuff_Electricity.dds</v>
-      </c>
-      <c r="M143" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M143" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Debuff_Electricity.dds</v>
-      </c>
-      <c r="N143" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N143" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Debuff_Electricity</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L144" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="144" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L144" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Debuff_Fire.dds</v>
-      </c>
-      <c r="M144" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M144" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Debuff_Fire.dds</v>
-      </c>
-      <c r="N144" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N144" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Debuff_Fire</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>1331</v>
-      </c>
-      <c r="L145" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="145" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L145" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Debuff_Impact.dds</v>
-      </c>
-      <c r="M145" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M145" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Debuff_Impact.dds</v>
-      </c>
-      <c r="N145" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N145" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Debuff_Impact</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>1332</v>
-      </c>
-      <c r="L146" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="146" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L146" t="e">
         <f t="shared" si="6"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Icon_Debuff_Penetrate.dds</v>
-      </c>
-      <c r="M146" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M146" t="e">
         <f t="shared" si="7"/>
-        <v>UIT_Icon_Debuff_Penetrate.dds</v>
-      </c>
-      <c r="N146" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N146" t="e">
         <f t="shared" si="8"/>
-        <v>Prototype_Texture_UI_UIT_Icon_Debuff_Penetrate</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBDF371-3743-4582-BE81-882AEAD02AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B7D572-D89F-4583-BE48-F061EA5A73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="1336">
   <si>
     <t>_Path</t>
   </si>
@@ -3980,42 +3980,6 @@
     <t>Prototype_Texture_UI_UIT_Icon_Debuff_Penetrate</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_BG_Shadercompile.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Img_Loading_10.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_DeskBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_0.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_3.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_4.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_5.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Paper_0.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_PhotoBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_TipBg.dds</t>
-  </si>
-  <si>
     <t>../Bin/Resources/Textures/UI/UIT_BG_Shadercompile.dds</t>
   </si>
   <si>
@@ -4086,6 +4050,15 @@
   </si>
   <si>
     <t>Prototype_Texture_UI_UIT_Loading_TipBg</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Logo_0.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Logo_0.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Logo_0</t>
   </si>
 </sst>
 </file>
@@ -4469,10 +4442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D668"/>
+  <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="E659" sqref="E659"/>
+    <sheetView topLeftCell="A646" workbookViewId="0">
+      <selection activeCell="B677" sqref="B677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11700,10 +11673,10 @@
         <v>654</v>
       </c>
       <c r="B657" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C657" t="s">
         <v>1321</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -11711,10 +11684,10 @@
         <v>655</v>
       </c>
       <c r="B658" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C658" t="s">
         <v>1322</v>
-      </c>
-      <c r="C658" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -11722,10 +11695,10 @@
         <v>656</v>
       </c>
       <c r="B659" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C659" t="s">
         <v>1323</v>
-      </c>
-      <c r="C659" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -11733,10 +11706,10 @@
         <v>657</v>
       </c>
       <c r="B660" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C660" t="s">
         <v>1324</v>
-      </c>
-      <c r="C660" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -11744,10 +11717,10 @@
         <v>658</v>
       </c>
       <c r="B661" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C661" t="s">
         <v>1325</v>
-      </c>
-      <c r="C661" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -11755,10 +11728,10 @@
         <v>659</v>
       </c>
       <c r="B662" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C662" t="s">
         <v>1326</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -11766,10 +11739,10 @@
         <v>660</v>
       </c>
       <c r="B663" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C663" t="s">
         <v>1327</v>
-      </c>
-      <c r="C663" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -11777,10 +11750,10 @@
         <v>661</v>
       </c>
       <c r="B664" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C664" t="s">
         <v>1328</v>
-      </c>
-      <c r="C664" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -11788,10 +11761,10 @@
         <v>662</v>
       </c>
       <c r="B665" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C665" t="s">
         <v>1329</v>
-      </c>
-      <c r="C665" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -11799,10 +11772,10 @@
         <v>663</v>
       </c>
       <c r="B666" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C666" t="s">
         <v>1330</v>
-      </c>
-      <c r="C666" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -11810,10 +11783,10 @@
         <v>664</v>
       </c>
       <c r="B667" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C667" t="s">
         <v>1331</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -11821,10 +11794,21 @@
         <v>665</v>
       </c>
       <c r="B668" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C668" t="s">
         <v>1332</v>
       </c>
-      <c r="C668" t="s">
-        <v>1344</v>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>666</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
@@ -11835,10 +11819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B668"/>
+  <dimension ref="A1:B669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
-      <selection activeCell="A676" sqref="A676"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17095,98 +17079,106 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B657" t="s">
         <v>1321</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B658" t="s">
         <v>1322</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B659" t="s">
         <v>1323</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B660" t="s">
         <v>1324</v>
-      </c>
-      <c r="B660" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B661" t="s">
         <v>1325</v>
-      </c>
-      <c r="B661" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B662" t="s">
         <v>1326</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B663" t="s">
         <v>1327</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B664" t="s">
         <v>1328</v>
-      </c>
-      <c r="B664" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B665" t="s">
         <v>1329</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B666" t="s">
         <v>1330</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B667" t="s">
         <v>1331</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B668" t="s">
         <v>1332</v>
       </c>
-      <c r="B668" t="s">
-        <v>1344</v>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
@@ -17200,7 +17192,7 @@
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17211,206 +17203,173 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1309</v>
+        <v>1333</v>
       </c>
       <c r="L1" t="str">
         <f>"../"&amp;SUBSTITUTE(RIGHT(A1,LEN(A1)-FIND("Bin",A1)+1),"\","/")</f>
-        <v>../Bin/Resources/Textures/UI/UIT_BG_Shadercompile.dds</v>
+        <v>../Bin/Resources/Textures/UI/Logo_0.dds</v>
       </c>
       <c r="M1" t="str">
         <f>RIGHT(L1,LEN(L1)-FIND("UI",L1)-2)</f>
-        <v>UIT_BG_Shadercompile.dds</v>
+        <v>Logo_0.dds</v>
       </c>
       <c r="N1" t="str">
         <f>"Prototype_Texture_UI_"&amp;LEFT(M1,LEN(M1)-4)</f>
-        <v>Prototype_Texture_UI_UIT_BG_Shadercompile</v>
+        <v>Prototype_Texture_UI_Logo_0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="L2" t="e">
         <f t="shared" ref="L2:L30" si="0">"../"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
-        <v>../Bin/Resources/Textures/UI/UIT_Img_Loading_10.dds</v>
-      </c>
-      <c r="M2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" t="e">
         <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
-        <v>UIT_Img_Loading_10.dds</v>
-      </c>
-      <c r="N2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N2" t="e">
         <f t="shared" ref="N2:N65" si="2">"Prototype_Texture_UI_"&amp;LEFT(M2,LEN(M2)-4)</f>
-        <v>Prototype_Texture_UI_UIT_Img_Loading_10</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="L3" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_DeskBg.dds</v>
-      </c>
-      <c r="M3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_DeskBg.dds</v>
-      </c>
-      <c r="N3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N3" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_DeskBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="L4" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_0.dds</v>
-      </c>
-      <c r="M4" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_0.dds</v>
-      </c>
-      <c r="N4" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N4" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1313</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="L5" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_1.dds</v>
-      </c>
-      <c r="M5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_1.dds</v>
-      </c>
-      <c r="N5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_1</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1314</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="L6" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_2.dds</v>
-      </c>
-      <c r="M6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_2.dds</v>
-      </c>
-      <c r="N6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1315</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="L7" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_3.dds</v>
-      </c>
-      <c r="M7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_3.dds</v>
-      </c>
-      <c r="N7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L8" t="str">
+      <c r="L8" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_4.dds</v>
-      </c>
-      <c r="M8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_4.dds</v>
-      </c>
-      <c r="N8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N8" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_4</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1317</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="L9" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_Object_5.dds</v>
-      </c>
-      <c r="M9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_5.dds</v>
-      </c>
-      <c r="N9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_5</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1318</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="L10" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_Paper_0.dds</v>
-      </c>
-      <c r="M10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Paper_0.dds</v>
-      </c>
-      <c r="N10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Paper_0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1319</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="L11" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_PhotoBg.dds</v>
-      </c>
-      <c r="M11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_PhotoBg.dds</v>
-      </c>
-      <c r="N11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_PhotoBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1320</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="L12" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Loading_TipBg.dds</v>
-      </c>
-      <c r="M12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_TipBg.dds</v>
-      </c>
-      <c r="N12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N12" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_TipBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B7D572-D89F-4583-BE48-F061EA5A73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D3374-6DBD-4E9D-AD67-4A58B116A01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4444,8 +4444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
   <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView topLeftCell="A646" workbookViewId="0">
-      <selection activeCell="B677" sqref="B677"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="A474" sqref="A474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11821,7 +11821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
   <dimension ref="A1:B669"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D3374-6DBD-4E9D-AD67-4A58B116A01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4AAFED3-949D-479D-A98D-F9AA1931FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1347">
   <si>
     <t>_Path</t>
   </si>
@@ -4052,13 +4052,46 @@
     <t>Prototype_Texture_UI_UIT_Loading_TipBg</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Logo_0.dds</t>
-  </si>
-  <si>
     <t>../Bin/Resources/Textures/UI/Logo_0.dds</t>
   </si>
   <si>
     <t>Prototype_Texture_UI_Logo_0</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Manus.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Raxasia.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Stair.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Start.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Telepot_Manus.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Telepot_Raxasia.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Telepot_Stair.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/Telepot_Start.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Telepot_Manus</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Telepot_Raxasia</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Telepot_Stair</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Telepot_Start</t>
   </si>
 </sst>
 </file>
@@ -4442,10 +4475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D669"/>
+  <dimension ref="A1:D673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="A474" sqref="A474"/>
+    <sheetView topLeftCell="A658" workbookViewId="0">
+      <selection activeCell="B678" sqref="B678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11805,10 +11838,54 @@
         <v>666</v>
       </c>
       <c r="B669" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C669" t="s">
         <v>1334</v>
       </c>
-      <c r="C669" t="s">
-        <v>1335</v>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>667</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>668</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>669</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>670</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -11819,10 +11896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B669"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="A670" sqref="A670:B673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17175,10 +17252,42 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B669" t="s">
         <v>1334</v>
       </c>
-      <c r="B669" t="s">
-        <v>1335</v>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -17192,7 +17301,7 @@
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="N2" sqref="N2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17202,76 +17311,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="L1" t="str">
+      <c r="L1" t="e">
         <f>"../"&amp;SUBSTITUTE(RIGHT(A1,LEN(A1)-FIND("Bin",A1)+1),"\","/")</f>
-        <v>../Bin/Resources/Textures/UI/Logo_0.dds</v>
-      </c>
-      <c r="M1" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M1" t="e">
         <f>RIGHT(L1,LEN(L1)-FIND("UI",L1)-2)</f>
-        <v>Logo_0.dds</v>
-      </c>
-      <c r="N1" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N1" t="e">
         <f>"Prototype_Texture_UI_"&amp;LEFT(M1,LEN(M1)-4)</f>
-        <v>Prototype_Texture_UI_Logo_0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L2" t="e">
+      <c r="A2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L2" t="str">
         <f t="shared" ref="L2:L30" si="0">"../"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M2" t="e">
+        <v>../Bin/Resources/Textures/UI/Telepot_Manus.dds</v>
+      </c>
+      <c r="M2" t="str">
         <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N2" t="e">
+        <v>Telepot_Manus.dds</v>
+      </c>
+      <c r="N2" t="str">
         <f t="shared" ref="N2:N65" si="2">"Prototype_Texture_UI_"&amp;LEFT(M2,LEN(M2)-4)</f>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_Telepot_Manus</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L3" t="e">
+      <c r="A3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M3" t="e">
+        <v>../Bin/Resources/Textures/UI/Telepot_Raxasia.dds</v>
+      </c>
+      <c r="M3" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N3" t="e">
+        <v>Telepot_Raxasia.dds</v>
+      </c>
+      <c r="N3" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_Telepot_Raxasia</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L4" t="e">
+      <c r="A4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M4" t="e">
+        <v>../Bin/Resources/Textures/UI/Telepot_Stair.dds</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N4" t="e">
+        <v>Telepot_Stair.dds</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_Telepot_Stair</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L5" t="e">
+      <c r="A5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" t="e">
+        <v>../Bin/Resources/Textures/UI/Telepot_Start.dds</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" t="e">
+        <v>Telepot_Start.dds</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_Telepot_Start</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4AAFED3-949D-479D-A98D-F9AA1931FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5E2BE-FABB-4104-AFD0-5DDC3AC16354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="1397">
   <si>
     <t>_Path</t>
   </si>
@@ -4058,18 +4058,6 @@
     <t>Prototype_Texture_UI_Logo_0</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Manus.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Raxasia.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Stair.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Start.dds</t>
-  </si>
-  <si>
     <t>../Bin/Resources/Textures/UI/Telepot_Manus.dds</t>
   </si>
   <si>
@@ -4092,6 +4080,168 @@
   </si>
   <si>
     <t>Prototype_Texture_UI_Telepot_Start</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Hud_Ost_Record.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_Bottom.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_TopSide.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_TopTile.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Cover.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_List_DecoBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_Deco.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_PlayMarker.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_Tile.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayBg_Deco.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayPin.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Progress_Cover.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_TitleBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_TorisionCoil_Record_03.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_TorisionCoil_Record_06.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Hud_Ost_Record.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_Bg.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_Bg_Bottom.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_Bg_TopSide.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_Bg_TopTile.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_Cover.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_List_DecoBg.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_ListBg.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_ListBg_Deco.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_ListBg_PlayMarker.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_ListBg_Tile.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_PlayBg.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_PlayBg_Deco.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_PlayPin.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_Progress_Cover.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Record_TitleBg.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_03.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_06.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Hud_Ost_Record</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Bg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Bg_Bottom</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Bg_TopSide</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Bg_TopTile</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Cover</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_List_DecoBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_ListBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_ListBg_Deco</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_ListBg_PlayMarker</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_ListBg_Tile</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_PlayBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_PlayBg_Deco</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_PlayPin</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Progress_Cover</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_TitleBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_TorisionCoil_Record_03</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_TorisionCoil_Record_06</t>
   </si>
 </sst>
 </file>
@@ -4475,10 +4625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:D691"/>
   <sheetViews>
-    <sheetView topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="B678" sqref="B678"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="A681" sqref="A681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11849,10 +11999,10 @@
         <v>667</v>
       </c>
       <c r="B670" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C670" t="s">
         <v>1339</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -11860,10 +12010,10 @@
         <v>668</v>
       </c>
       <c r="B671" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C671" t="s">
         <v>1340</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -11871,10 +12021,10 @@
         <v>669</v>
       </c>
       <c r="B672" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C672" t="s">
         <v>1341</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -11882,10 +12032,208 @@
         <v>670</v>
       </c>
       <c r="B673" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C673" t="s">
         <v>1342</v>
       </c>
-      <c r="C673" t="s">
-        <v>1346</v>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>671</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>672</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>673</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>674</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>675</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>676</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>677</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>678</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>679</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>680</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>681</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>682</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>683</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>684</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>685</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>686</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>687</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>688</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -11896,10 +12244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B673"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="A670" sqref="A670:B673"/>
+    <sheetView topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="E676" sqref="E676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17260,34 +17608,178 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B670" t="s">
         <v>1339</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B671" t="s">
         <v>1340</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B672" t="s">
         <v>1341</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B673" t="s">
         <v>1342</v>
       </c>
-      <c r="B673" t="s">
-        <v>1346</v>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -17301,7 +17793,7 @@
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N5"/>
+      <selection activeCell="N6" sqref="N6:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17325,326 +17817,368 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="L2" t="e">
         <f t="shared" ref="L2:L30" si="0">"../"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
-        <v>../Bin/Resources/Textures/UI/Telepot_Manus.dds</v>
-      </c>
-      <c r="M2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" t="e">
         <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
-        <v>Telepot_Manus.dds</v>
-      </c>
-      <c r="N2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N2" t="e">
         <f t="shared" ref="N2:N65" si="2">"Prototype_Texture_UI_"&amp;LEFT(M2,LEN(M2)-4)</f>
-        <v>Prototype_Texture_UI_Telepot_Manus</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="L3" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/Telepot_Raxasia.dds</v>
-      </c>
-      <c r="M3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" t="e">
         <f t="shared" si="1"/>
-        <v>Telepot_Raxasia.dds</v>
-      </c>
-      <c r="N3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N3" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_Telepot_Raxasia</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="L4" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/Telepot_Stair.dds</v>
-      </c>
-      <c r="M4" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" t="e">
         <f t="shared" si="1"/>
-        <v>Telepot_Stair.dds</v>
-      </c>
-      <c r="N4" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N4" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_Telepot_Stair</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="L5" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/Telepot_Start.dds</v>
-      </c>
-      <c r="M5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" t="e">
         <f t="shared" si="1"/>
-        <v>Telepot_Start.dds</v>
-      </c>
-      <c r="N5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_Telepot_Start</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L6" t="e">
+      <c r="A6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Hud_Ost_Record.dds</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>UIT_Hud_Ost_Record.dds</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Hud_Ost_Record</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L7" t="e">
+      <c r="A7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_Bg.dds</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>UIT_Record_Bg.dds</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_Bg</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L8" t="e">
+      <c r="A8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_Bg_Bottom.dds</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>UIT_Record_Bg_Bottom.dds</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_Bg_Bottom</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L9" t="e">
+      <c r="A9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_Bg_TopSide.dds</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>UIT_Record_Bg_TopSide.dds</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_Bg_TopSide</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L10" t="e">
+      <c r="A10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_Bg_TopTile.dds</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>UIT_Record_Bg_TopTile.dds</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_Bg_TopTile</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L11" t="e">
+      <c r="A11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_Cover.dds</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" t="e">
+        <v>UIT_Record_Cover.dds</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_Cover</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L12" t="e">
+      <c r="A12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_List_DecoBg.dds</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N12" t="e">
+        <v>UIT_Record_List_DecoBg.dds</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_List_DecoBg</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L13" t="e">
+      <c r="A13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_ListBg.dds</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N13" t="e">
+        <v>UIT_Record_ListBg.dds</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_ListBg</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L14" t="e">
+      <c r="A14" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_ListBg_Deco.dds</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N14" t="e">
+        <v>UIT_Record_ListBg_Deco.dds</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_ListBg_Deco</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L15" t="e">
+      <c r="A15" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_ListBg_PlayMarker.dds</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N15" t="e">
+        <v>UIT_Record_ListBg_PlayMarker.dds</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_ListBg_PlayMarker</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L16" t="e">
+      <c r="A16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M16" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_ListBg_Tile.dds</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N16" t="e">
+        <v>UIT_Record_ListBg_Tile.dds</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L17" t="e">
+        <v>Prototype_Texture_UI_UIT_Record_ListBg_Tile</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M17" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_PlayBg.dds</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N17" t="e">
+        <v>UIT_Record_PlayBg.dds</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L18" t="e">
+        <v>Prototype_Texture_UI_UIT_Record_PlayBg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_PlayBg_Deco.dds</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N18" t="e">
+        <v>UIT_Record_PlayBg_Deco.dds</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L19" t="e">
+        <v>Prototype_Texture_UI_UIT_Record_PlayBg_Deco</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M19" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_PlayPin.dds</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" t="e">
+        <v>UIT_Record_PlayPin.dds</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L20" t="e">
+        <v>Prototype_Texture_UI_UIT_Record_PlayPin</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M20" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_Progress_Cover.dds</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N20" t="e">
+        <v>UIT_Record_Progress_Cover.dds</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L21" t="e">
+        <v>Prototype_Texture_UI_UIT_Record_Progress_Cover</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M21" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Record_TitleBg.dds</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N21" t="e">
+        <v>UIT_Record_TitleBg.dds</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L22" t="e">
+        <v>Prototype_Texture_UI_UIT_Record_TitleBg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M22" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_03.dds</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N22" t="e">
+        <v>UIT_TorisionCoil_Record_03.dds</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L23" t="e">
+        <v>Prototype_Texture_UI_UIT_TorisionCoil_Record_03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M23" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_06.dds</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N23" t="e">
+        <v>UIT_TorisionCoil_Record_06.dds</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="12:14" x14ac:dyDescent="0.3">
+        <v>Prototype_Texture_UI_UIT_TorisionCoil_Record_06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L24" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17658,7 +18192,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L25" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17672,7 +18206,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17686,7 +18220,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17700,7 +18234,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L28" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17714,7 +18248,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L29" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17728,7 +18262,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L30" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17742,7 +18276,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L31" t="e">
         <f t="shared" ref="L31:L84" si="3">"../"&amp;SUBSTITUTE(RIGHT(A31,LEN(A31)-FIND("Bin",A31)+1),"\","/")</f>
         <v>#VALUE!</v>
@@ -17756,7 +18290,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L32" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5E2BE-FABB-4104-AFD0-5DDC3AC16354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B536BC2-C5D9-4C87-AFBD-4EEC97DEA242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="1391">
   <si>
     <t>_Path</t>
   </si>
@@ -4082,60 +4082,6 @@
     <t>Prototype_Texture_UI_Telepot_Start</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Hud_Ost_Record.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_Bottom.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_TopSide.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_TopTile.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Cover.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_List_DecoBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_Deco.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_PlayMarker.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_Tile.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayBg_Deco.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayPin.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Progress_Cover.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_TitleBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_TorisionCoil_Record_03.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_TorisionCoil_Record_06.dds</t>
-  </si>
-  <si>
     <t>../Bin/Resources/Textures/UI/UIT_Hud_Ost_Record.dds</t>
   </si>
   <si>
@@ -4242,6 +4188,42 @@
   </si>
   <si>
     <t>Prototype_Texture_UI_UIT_TorisionCoil_Record_06</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Gallery_Raxasia_P1.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Gallery_Raxasia_P2.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Gallery_SimonManus_P1.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Gallery_SimonManus_P2.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Gallery_Raxasia_P1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Gallery_Raxasia_P2.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Gallery_SimonManus_P1.dds</t>
+  </si>
+  <si>
+    <t>../Bin/Resources/Textures/UI/UIT_Gallery_SimonManus_P2.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Gallery_Raxasia_P1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Gallery_Raxasia_P2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Gallery_SimonManus_P1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Gallery_SimonManus_P2</t>
   </si>
 </sst>
 </file>
@@ -4625,10 +4607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D691"/>
+  <dimension ref="A1:D695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="A681" sqref="A681"/>
+    <sheetView topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="B697" sqref="B697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12043,10 +12025,10 @@
         <v>671</v>
       </c>
       <c r="B674" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C674" t="s">
         <v>1361</v>
-      </c>
-      <c r="C674" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -12054,10 +12036,10 @@
         <v>672</v>
       </c>
       <c r="B675" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C675" t="s">
         <v>1362</v>
-      </c>
-      <c r="C675" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -12065,10 +12047,10 @@
         <v>673</v>
       </c>
       <c r="B676" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C676" t="s">
         <v>1363</v>
-      </c>
-      <c r="C676" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -12076,10 +12058,10 @@
         <v>674</v>
       </c>
       <c r="B677" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C677" t="s">
         <v>1364</v>
-      </c>
-      <c r="C677" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -12087,10 +12069,10 @@
         <v>675</v>
       </c>
       <c r="B678" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C678" t="s">
         <v>1365</v>
-      </c>
-      <c r="C678" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -12098,10 +12080,10 @@
         <v>676</v>
       </c>
       <c r="B679" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C679" t="s">
         <v>1366</v>
-      </c>
-      <c r="C679" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -12109,10 +12091,10 @@
         <v>677</v>
       </c>
       <c r="B680" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C680" t="s">
         <v>1367</v>
-      </c>
-      <c r="C680" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -12120,10 +12102,10 @@
         <v>678</v>
       </c>
       <c r="B681" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C681" t="s">
         <v>1368</v>
-      </c>
-      <c r="C681" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -12131,10 +12113,10 @@
         <v>679</v>
       </c>
       <c r="B682" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C682" t="s">
         <v>1369</v>
-      </c>
-      <c r="C682" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -12142,10 +12124,10 @@
         <v>680</v>
       </c>
       <c r="B683" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C683" t="s">
         <v>1370</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -12153,10 +12135,10 @@
         <v>681</v>
       </c>
       <c r="B684" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C684" t="s">
         <v>1371</v>
-      </c>
-      <c r="C684" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -12164,10 +12146,10 @@
         <v>682</v>
       </c>
       <c r="B685" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C685" t="s">
         <v>1372</v>
-      </c>
-      <c r="C685" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -12175,10 +12157,10 @@
         <v>683</v>
       </c>
       <c r="B686" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C686" t="s">
         <v>1373</v>
-      </c>
-      <c r="C686" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -12186,10 +12168,10 @@
         <v>684</v>
       </c>
       <c r="B687" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C687" t="s">
         <v>1374</v>
-      </c>
-      <c r="C687" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -12197,10 +12179,10 @@
         <v>685</v>
       </c>
       <c r="B688" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C688" t="s">
         <v>1375</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -12208,10 +12190,10 @@
         <v>686</v>
       </c>
       <c r="B689" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C689" t="s">
         <v>1376</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -12219,10 +12201,10 @@
         <v>687</v>
       </c>
       <c r="B690" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C690" t="s">
         <v>1377</v>
-      </c>
-      <c r="C690" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -12230,10 +12212,54 @@
         <v>688</v>
       </c>
       <c r="B691" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C691" t="s">
         <v>1378</v>
       </c>
-      <c r="C691" t="s">
-        <v>1396</v>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>689</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>690</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>691</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>692</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
@@ -12244,10 +12270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
-    <sheetView topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="E676" sqref="E676"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="A692" sqref="A692:B695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17640,146 +17666,178 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B674" t="s">
         <v>1361</v>
-      </c>
-      <c r="B674" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B675" t="s">
         <v>1362</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B676" t="s">
         <v>1363</v>
-      </c>
-      <c r="B676" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B677" t="s">
         <v>1364</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B678" t="s">
         <v>1365</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B679" t="s">
         <v>1366</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B680" t="s">
         <v>1367</v>
-      </c>
-      <c r="B680" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B681" t="s">
         <v>1368</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B682" t="s">
         <v>1369</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B683" t="s">
         <v>1370</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B684" t="s">
         <v>1371</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B685" t="s">
         <v>1372</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B686" t="s">
         <v>1373</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B687" t="s">
         <v>1374</v>
-      </c>
-      <c r="B687" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B688" t="s">
         <v>1375</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B689" t="s">
         <v>1376</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B690" t="s">
         <v>1377</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B691" t="s">
         <v>1378</v>
       </c>
-      <c r="B691" t="s">
-        <v>1396</v>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
@@ -17793,7 +17851,7 @@
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N23"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17803,59 +17861,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L1" t="e">
+      <c r="A1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L1" t="str">
         <f>"../"&amp;SUBSTITUTE(RIGHT(A1,LEN(A1)-FIND("Bin",A1)+1),"\","/")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M1" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Gallery_Raxasia_P1.dds</v>
+      </c>
+      <c r="M1" t="str">
         <f>RIGHT(L1,LEN(L1)-FIND("UI",L1)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N1" t="e">
+        <v>UIT_Gallery_Raxasia_P1.dds</v>
+      </c>
+      <c r="N1" t="str">
         <f>"Prototype_Texture_UI_"&amp;LEFT(M1,LEN(M1)-4)</f>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Gallery_Raxasia_P1</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L2" t="e">
+      <c r="A2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L2" t="str">
         <f t="shared" ref="L2:L30" si="0">"../"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M2" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Gallery_Raxasia_P2.dds</v>
+      </c>
+      <c r="M2" t="str">
         <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N2" t="e">
+        <v>UIT_Gallery_Raxasia_P2.dds</v>
+      </c>
+      <c r="N2" t="str">
         <f t="shared" ref="N2:N65" si="2">"Prototype_Texture_UI_"&amp;LEFT(M2,LEN(M2)-4)</f>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Gallery_Raxasia_P2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L3" t="e">
+      <c r="A3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M3" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Gallery_SimonManus_P1.dds</v>
+      </c>
+      <c r="M3" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N3" t="e">
+        <v>UIT_Gallery_SimonManus_P1.dds</v>
+      </c>
+      <c r="N3" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Gallery_SimonManus_P1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L4" t="e">
+      <c r="A4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M4" t="e">
+        <v>../Bin/Resources/Textures/UI/UIT_Gallery_SimonManus_P2.dds</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N4" t="e">
+        <v>UIT_Gallery_SimonManus_P2.dds</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Gallery_SimonManus_P2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -17873,312 +17943,258 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1343</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="L6" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Hud_Ost_Record.dds</v>
-      </c>
-      <c r="M6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Hud_Ost_Record.dds</v>
-      </c>
-      <c r="N6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Hud_Ost_Record</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1344</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="L7" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_Bg.dds</v>
-      </c>
-      <c r="M7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Bg.dds</v>
-      </c>
-      <c r="N7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Bg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1345</v>
-      </c>
-      <c r="L8" t="str">
+      <c r="L8" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_Bg_Bottom.dds</v>
-      </c>
-      <c r="M8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Bg_Bottom.dds</v>
-      </c>
-      <c r="N8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N8" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Bg_Bottom</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1346</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="L9" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_Bg_TopSide.dds</v>
-      </c>
-      <c r="M9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Bg_TopSide.dds</v>
-      </c>
-      <c r="N9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Bg_TopSide</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1347</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="L10" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_Bg_TopTile.dds</v>
-      </c>
-      <c r="M10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Bg_TopTile.dds</v>
-      </c>
-      <c r="N10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Bg_TopTile</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1348</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="L11" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_Cover.dds</v>
-      </c>
-      <c r="M11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Cover.dds</v>
-      </c>
-      <c r="N11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Cover</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1349</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="L12" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_List_DecoBg.dds</v>
-      </c>
-      <c r="M12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_List_DecoBg.dds</v>
-      </c>
-      <c r="N12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N12" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_List_DecoBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1350</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="L13" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_ListBg.dds</v>
-      </c>
-      <c r="M13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_ListBg.dds</v>
-      </c>
-      <c r="N13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N13" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_ListBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="L14" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_ListBg_Deco.dds</v>
-      </c>
-      <c r="M14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_ListBg_Deco.dds</v>
-      </c>
-      <c r="N14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N14" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_ListBg_Deco</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1352</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="L15" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_ListBg_PlayMarker.dds</v>
-      </c>
-      <c r="M15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_ListBg_PlayMarker.dds</v>
-      </c>
-      <c r="N15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N15" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_ListBg_PlayMarker</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1353</v>
-      </c>
-      <c r="L16" t="str">
+      <c r="L16" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_ListBg_Tile.dds</v>
-      </c>
-      <c r="M16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_ListBg_Tile.dds</v>
-      </c>
-      <c r="N16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N16" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_ListBg_Tile</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1354</v>
-      </c>
-      <c r="L17" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L17" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_PlayBg.dds</v>
-      </c>
-      <c r="M17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_PlayBg.dds</v>
-      </c>
-      <c r="N17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N17" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_PlayBg</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1355</v>
-      </c>
-      <c r="L18" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L18" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_PlayBg_Deco.dds</v>
-      </c>
-      <c r="M18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_PlayBg_Deco.dds</v>
-      </c>
-      <c r="N18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N18" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_PlayBg_Deco</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1356</v>
-      </c>
-      <c r="L19" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L19" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_PlayPin.dds</v>
-      </c>
-      <c r="M19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_PlayPin.dds</v>
-      </c>
-      <c r="N19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_PlayPin</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1357</v>
-      </c>
-      <c r="L20" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L20" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_Progress_Cover.dds</v>
-      </c>
-      <c r="M20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Progress_Cover.dds</v>
-      </c>
-      <c r="N20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N20" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Progress_Cover</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1358</v>
-      </c>
-      <c r="L21" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L21" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_Record_TitleBg.dds</v>
-      </c>
-      <c r="M21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_TitleBg.dds</v>
-      </c>
-      <c r="N21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N21" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_TitleBg</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1359</v>
-      </c>
-      <c r="L22" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L22" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_03.dds</v>
-      </c>
-      <c r="M22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_TorisionCoil_Record_03.dds</v>
-      </c>
-      <c r="N22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N22" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_TorisionCoil_Record_03</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1360</v>
-      </c>
-      <c r="L23" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L23" t="e">
         <f t="shared" si="0"/>
-        <v>../Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_06.dds</v>
-      </c>
-      <c r="M23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_TorisionCoil_Record_06.dds</v>
-      </c>
-      <c r="N23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_TorisionCoil_Record_06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L24" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18192,7 +18208,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L25" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18206,7 +18222,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18220,7 +18236,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18234,7 +18250,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L28" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18248,7 +18264,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L29" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18262,7 +18278,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L30" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18276,7 +18292,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L31" t="e">
         <f t="shared" ref="L31:L84" si="3">"../"&amp;SUBSTITUTE(RIGHT(A31,LEN(A31)-FIND("Bin",A31)+1),"\","/")</f>
         <v>#VALUE!</v>
@@ -18290,7 +18306,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L32" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B536BC2-C5D9-4C87-AFBD-4EEC97DEA242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A210F-1C3F-48B1-A0ED-7E4CD1ACFAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4609,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
   <dimension ref="A1:D695"/>
   <sheetViews>
-    <sheetView topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="B697" sqref="B697"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12272,8 +12272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
   <dimension ref="A1:B695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="A692" sqref="A692:B695"/>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A210F-1C3F-48B1-A0ED-7E4CD1ACFAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF8FCCB-28D4-43C5-8F94-79E7F72E1CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="31605" yWindow="945" windowWidth="21600" windowHeight="12975" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4609,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
   <dimension ref="A1:D695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A348" sqref="A348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
